--- a/MIJITOUR.xlsx
+++ b/MIJITOUR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckymx\Downloads\miji-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C0D876-64D8-4E77-B858-A4D0A07BB99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E7A310-D13C-4AB4-8540-BB23EF1E6AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="7455" windowWidth="31755" windowHeight="13425" xr2:uid="{E034ED55-084A-49FD-A829-B0C60511E6CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E034ED55-084A-49FD-A829-B0C60511E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="134">
   <si>
     <t>#</t>
   </si>
@@ -389,36 +389,18 @@
     <t>FriendWithBNF</t>
   </si>
   <si>
-    <t>Dofa'z</t>
-  </si>
-  <si>
-    <t>NismO</t>
-  </si>
-  <si>
     <t>PonderingTH</t>
   </si>
   <si>
-    <t>Under2TaKel2</t>
-  </si>
-  <si>
     <t>GojoSatoruu</t>
   </si>
   <si>
-    <t>Dagame</t>
-  </si>
-  <si>
-    <t>Nariya21</t>
-  </si>
-  <si>
     <t>Miloki</t>
   </si>
   <si>
     <t>SleepyFox</t>
   </si>
   <si>
-    <t>พ่อหมอ01</t>
-  </si>
-  <si>
     <t>Mr.Hyong</t>
   </si>
   <si>
@@ -440,40 +422,22 @@
     <t>Rainyuki</t>
   </si>
   <si>
-    <t>Jakal</t>
-  </si>
-  <si>
-    <t>BLUEICE</t>
-  </si>
-  <si>
     <t>༘♡ネミカ｡</t>
   </si>
   <si>
-    <t>yoyo</t>
-  </si>
-  <si>
     <t>Gaokai</t>
   </si>
   <si>
     <t>Zybrog</t>
   </si>
   <si>
-    <t>วัEsะเริง</t>
-  </si>
-  <si>
     <t>La'-Lune</t>
   </si>
   <si>
     <t>Justin'lee</t>
   </si>
   <si>
-    <t>Obliged</t>
-  </si>
-  <si>
-    <t>RAGNER</t>
-  </si>
-  <si>
-    <t>Guillotine Cross</t>
+    <t>Guillottine Cross</t>
   </si>
 </sst>
 </file>
@@ -564,19 +528,29 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF2E9C6-8856-4D27-B685-5C6CA991A490}">
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection sqref="A1:L184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1029,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2">
         <v>19</v>
@@ -1283,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -1397,7 +1371,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2">
         <v>9</v>
@@ -1739,7 +1713,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
@@ -1777,7 +1751,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -2043,7 +2017,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
@@ -2233,7 +2207,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
@@ -2689,7 +2663,7 @@
         <v>66</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -3867,7 +3841,7 @@
         <v>101</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -4437,7 +4411,7 @@
         <v>17</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D93" s="4">
         <v>49</v>
@@ -4578,10 +4552,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D97" s="4">
         <v>30</v>
@@ -4650,7 +4624,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>13</v>
@@ -4725,7 +4699,7 @@
         <v>52</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D101" s="4">
         <v>14</v>
@@ -4830,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>24</v>
@@ -4866,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>24</v>
@@ -4905,7 +4879,7 @@
         <v>38</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D106" s="4">
         <v>11</v>
@@ -5010,7 +4984,7 @@
         <v>17</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>13</v>
@@ -5190,10 +5164,10 @@
         <v>22</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D114" s="4">
         <v>7</v>
@@ -5406,7 +5380,7 @@
         <v>28</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>13</v>
@@ -5445,7 +5419,7 @@
         <v>66</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D121" s="4">
         <v>5</v>
@@ -5478,7 +5452,7 @@
         <v>30</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>13</v>
@@ -5697,7 +5671,7 @@
         <v>39</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D128" s="4">
         <v>3</v>
@@ -5715,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="4" t="s">
@@ -5730,10 +5704,10 @@
         <v>37</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D129" s="4">
         <v>3</v>
@@ -5751,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="4" t="s">
@@ -5761,21 +5735,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A130" s="4">
         <v>38</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D130" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F130" s="4">
         <v>2</v>
@@ -5787,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="4" t="s">
@@ -5797,24 +5771,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="4">
         <v>39</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D131" s="4">
         <v>2</v>
       </c>
       <c r="E131" s="4">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F131" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G131" s="4">
         <v>0</v>
@@ -5823,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="4" t="s">
@@ -5838,19 +5812,19 @@
         <v>40</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D132" s="4">
         <v>2</v>
       </c>
       <c r="E132" s="4">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F132" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G132" s="4">
         <v>0</v>
@@ -5859,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="4" t="s">
@@ -5874,28 +5848,28 @@
         <v>41</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D133" s="4">
         <v>2</v>
       </c>
       <c r="E133" s="4">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="F133" s="4">
+        <v>0</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0</v>
+      </c>
+      <c r="H133" s="4">
+        <v>0</v>
+      </c>
+      <c r="I133" s="4">
         <v>4</v>
-      </c>
-      <c r="G133" s="4">
-        <v>0</v>
-      </c>
-      <c r="H133" s="4">
-        <v>1</v>
-      </c>
-      <c r="I133" s="4">
-        <v>5</v>
       </c>
       <c r="J133" s="7"/>
       <c r="K133" s="4" t="s">
@@ -5910,28 +5884,28 @@
         <v>42</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D134" s="4">
         <v>2</v>
       </c>
       <c r="E134" s="4">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F134" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G134" s="4">
         <v>0</v>
       </c>
       <c r="H134" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="4" t="s">
@@ -5941,30 +5915,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A135" s="4">
         <v>43</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D135" s="4">
         <v>2</v>
       </c>
       <c r="E135" s="4">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F135" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G135" s="4">
         <v>0</v>
       </c>
       <c r="H135" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I135" s="4">
         <v>1</v>
@@ -5977,33 +5951,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="4">
         <v>44</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D136" s="4">
         <v>2</v>
       </c>
       <c r="E136" s="4">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F136" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
       </c>
       <c r="H136" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I136" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="4" t="s">
@@ -6018,28 +5992,28 @@
         <v>45</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D137" s="4">
         <v>2</v>
       </c>
       <c r="E137" s="4">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F137" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G137" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H137" s="4">
         <v>0</v>
       </c>
       <c r="I137" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" s="7"/>
       <c r="K137" s="4" t="s">
@@ -6054,7 +6028,7 @@
         <v>46</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>73</v>
@@ -6063,16 +6037,16 @@
         <v>2</v>
       </c>
       <c r="E138" s="4">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F138" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H138" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I138" s="4">
         <v>0</v>
@@ -6090,28 +6064,28 @@
         <v>47</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D139" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" s="4">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F139" s="4">
+        <v>0</v>
+      </c>
+      <c r="G139" s="4">
+        <v>14</v>
+      </c>
+      <c r="H139" s="4">
         <v>5</v>
       </c>
-      <c r="G139" s="4">
-        <v>0</v>
-      </c>
-      <c r="H139" s="4">
-        <v>0</v>
-      </c>
       <c r="I139" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="4" t="s">
@@ -6126,28 +6100,28 @@
         <v>48</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D140" s="4">
         <v>1</v>
       </c>
       <c r="E140" s="4">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F140" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G140" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H140" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I140" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="4" t="s">
@@ -6162,25 +6136,25 @@
         <v>49</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D141" s="4">
         <v>1</v>
       </c>
       <c r="E141" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F141" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G141" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H141" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I141" s="4">
         <v>1</v>
@@ -6198,22 +6172,22 @@
         <v>50</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D142" s="4">
         <v>1</v>
       </c>
       <c r="E142" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F142" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G142" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H142" s="4">
         <v>0</v>
@@ -6234,25 +6208,25 @@
         <v>51</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D143" s="4">
         <v>1</v>
       </c>
       <c r="E143" s="4">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F143" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G143" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H143" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I143" s="4">
         <v>1</v>
@@ -6270,25 +6244,25 @@
         <v>52</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D144" s="4">
         <v>1</v>
       </c>
       <c r="E144" s="4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F144" s="4">
+        <v>3</v>
+      </c>
+      <c r="G144" s="4">
+        <v>0</v>
+      </c>
+      <c r="H144" s="4">
         <v>5</v>
-      </c>
-      <c r="G144" s="4">
-        <v>0</v>
-      </c>
-      <c r="H144" s="4">
-        <v>0</v>
       </c>
       <c r="I144" s="4">
         <v>1</v>
@@ -6306,16 +6280,16 @@
         <v>53</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D145" s="4">
         <v>1</v>
       </c>
       <c r="E145" s="4">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="F145" s="4">
         <v>5</v>
@@ -6324,10 +6298,10 @@
         <v>0</v>
       </c>
       <c r="H145" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="4" t="s">
@@ -6342,25 +6316,25 @@
         <v>54</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D146" s="4">
         <v>1</v>
       </c>
       <c r="E146" s="4">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="F146" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G146" s="4">
         <v>0</v>
       </c>
       <c r="H146" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146" s="4">
         <v>3</v>
@@ -6378,28 +6352,28 @@
         <v>55</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
       </c>
       <c r="E147" s="4">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F147" s="4">
+        <v>6</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0</v>
+      </c>
+      <c r="H147" s="4">
+        <v>2</v>
+      </c>
+      <c r="I147" s="4">
         <v>3</v>
-      </c>
-      <c r="G147" s="4">
-        <v>4</v>
-      </c>
-      <c r="H147" s="4">
-        <v>0</v>
-      </c>
-      <c r="I147" s="4">
-        <v>2</v>
       </c>
       <c r="J147" s="7"/>
       <c r="K147" s="4" t="s">
@@ -6414,22 +6388,22 @@
         <v>56</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
       <c r="E148" s="4">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F148" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H148" s="4">
         <v>0</v>
@@ -6450,28 +6424,28 @@
         <v>57</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
       </c>
       <c r="E149" s="4">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F149" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
       </c>
       <c r="H149" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="4" t="s">
@@ -6486,28 +6460,28 @@
         <v>58</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" s="4">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="F150" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G150" s="4">
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J150" s="7"/>
       <c r="K150" s="4" t="s">
@@ -6522,19 +6496,19 @@
         <v>59</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D151" s="4">
         <v>0</v>
       </c>
       <c r="E151" s="4">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="F151" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G151" s="4">
         <v>0</v>
@@ -6543,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J151" s="7"/>
       <c r="K151" s="4" t="s">
@@ -6558,25 +6532,25 @@
         <v>60</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D152" s="4">
         <v>0</v>
       </c>
       <c r="E152" s="4">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F152" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G152" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" s="4">
         <v>1</v>
@@ -6594,7 +6568,7 @@
         <v>61</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>73</v>
@@ -6603,19 +6577,19 @@
         <v>0</v>
       </c>
       <c r="E153" s="4">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F153" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G153" s="4">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H153" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="4" t="s">
@@ -6630,28 +6604,28 @@
         <v>62</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D154" s="4">
         <v>0</v>
       </c>
       <c r="E154" s="4">
+        <v>1</v>
+      </c>
+      <c r="F154" s="4">
+        <v>0</v>
+      </c>
+      <c r="G154" s="4">
+        <v>32</v>
+      </c>
+      <c r="H154" s="4">
         <v>3</v>
       </c>
-      <c r="F154" s="4">
-        <v>3</v>
-      </c>
-      <c r="G154" s="4">
-        <v>0</v>
-      </c>
-      <c r="H154" s="4">
-        <v>1</v>
-      </c>
       <c r="I154" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="4" t="s">
@@ -6666,22 +6640,22 @@
         <v>63</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D155" s="4">
         <v>0</v>
       </c>
       <c r="E155" s="4">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F155" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G155" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H155" s="4">
         <v>1</v>
@@ -6702,28 +6676,28 @@
         <v>64</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D156" s="4">
         <v>0</v>
       </c>
       <c r="E156" s="4">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F156" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H156" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="4" t="s">
@@ -6738,28 +6712,28 @@
         <v>65</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D157" s="4">
         <v>0</v>
       </c>
       <c r="E157" s="4">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
       </c>
       <c r="G157" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H157" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="4" t="s">
@@ -6774,25 +6748,25 @@
         <v>66</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D158" s="4">
         <v>0</v>
       </c>
       <c r="E158" s="4">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="F158" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G158" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H158" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I158" s="4">
         <v>1</v>
@@ -6810,7 +6784,7 @@
         <v>67</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>73</v>
@@ -6819,16 +6793,16 @@
         <v>0</v>
       </c>
       <c r="E159" s="4">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="F159" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159" s="4">
+        <v>12</v>
+      </c>
+      <c r="H159" s="4">
         <v>7</v>
-      </c>
-      <c r="H159" s="4">
-        <v>1</v>
       </c>
       <c r="I159" s="4">
         <v>1</v>
@@ -6846,28 +6820,28 @@
         <v>68</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D160" s="4">
         <v>0</v>
       </c>
       <c r="E160" s="4">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F160" s="4">
         <v>3</v>
       </c>
       <c r="G160" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H160" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" s="7"/>
       <c r="K160" s="4" t="s">
@@ -6882,28 +6856,28 @@
         <v>69</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D161" s="4">
         <v>0</v>
       </c>
       <c r="E161" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F161" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G161" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H161" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="4" t="s">
@@ -6913,33 +6887,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="4">
         <v>70</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D162" s="4">
         <v>0</v>
       </c>
       <c r="E162" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F162" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G162" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H162" s="4">
         <v>1</v>
       </c>
       <c r="I162" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="4" t="s">
@@ -6949,33 +6923,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A163" s="4">
         <v>71</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D163" s="4">
         <v>0</v>
       </c>
       <c r="E163" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F163" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G163" s="4">
         <v>0</v>
       </c>
       <c r="H163" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="4" t="s">
@@ -6990,22 +6964,22 @@
         <v>72</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D164" s="4">
         <v>0</v>
       </c>
       <c r="E164" s="4">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="F164" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G164" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H164" s="4">
         <v>0</v>
@@ -7026,28 +7000,28 @@
         <v>73</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D165" s="4">
         <v>0</v>
       </c>
       <c r="E165" s="4">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="F165" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G165" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="4" t="s">
@@ -7062,7 +7036,7 @@
         <v>74</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>73</v>
@@ -7071,19 +7045,19 @@
         <v>0</v>
       </c>
       <c r="E166" s="4">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F166" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G166" s="4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H166" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" s="7"/>
       <c r="K166" s="4" t="s">
@@ -7098,28 +7072,28 @@
         <v>75</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D167" s="4">
         <v>0</v>
       </c>
       <c r="E167" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F167" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G167" s="4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H167" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" s="7"/>
       <c r="K167" s="4" t="s">
@@ -7134,7 +7108,7 @@
         <v>76</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>100</v>
@@ -7143,19 +7117,19 @@
         <v>0</v>
       </c>
       <c r="E168" s="4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F168" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G168" s="4">
         <v>0</v>
       </c>
       <c r="H168" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I168" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" s="7"/>
       <c r="K168" s="4" t="s">
@@ -7170,28 +7144,28 @@
         <v>77</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D169" s="4">
         <v>0</v>
       </c>
       <c r="E169" s="4">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F169" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G169" s="4">
         <v>0</v>
       </c>
       <c r="H169" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I169" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" s="7"/>
       <c r="K169" s="4" t="s">
@@ -7206,25 +7180,25 @@
         <v>78</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D170" s="4">
         <v>0</v>
       </c>
       <c r="E170" s="4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F170" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G170" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H170" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I170" s="4">
         <v>1</v>
@@ -7242,28 +7216,28 @@
         <v>79</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D171" s="4">
         <v>0</v>
       </c>
       <c r="E171" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F171" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G171" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H171" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I171" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" s="7"/>
       <c r="K171" s="4" t="s">
@@ -7278,19 +7252,19 @@
         <v>80</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D172" s="4">
         <v>0</v>
       </c>
       <c r="E172" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F172" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G172" s="4">
         <v>0</v>
@@ -7299,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="I172" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" s="7"/>
       <c r="K172" s="4" t="s">
@@ -7314,28 +7288,28 @@
         <v>81</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D173" s="4">
         <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F173" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G173" s="4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H173" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" s="7"/>
       <c r="K173" s="4" t="s">
@@ -7350,7 +7324,7 @@
         <v>82</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>73</v>
@@ -7359,16 +7333,16 @@
         <v>0</v>
       </c>
       <c r="E174" s="4">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="F174" s="4">
         <v>2</v>
       </c>
       <c r="G174" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H174" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" s="4">
         <v>1</v>
@@ -7386,28 +7360,28 @@
         <v>83</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D175" s="4">
         <v>0</v>
       </c>
       <c r="E175" s="4">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F175" s="4">
         <v>2</v>
       </c>
       <c r="G175" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H175" s="4">
         <v>0</v>
       </c>
       <c r="I175" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J175" s="7"/>
       <c r="K175" s="4" t="s">
@@ -7422,28 +7396,28 @@
         <v>84</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D176" s="4">
         <v>0</v>
       </c>
       <c r="E176" s="4">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F176" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G176" s="4">
+        <v>0</v>
+      </c>
+      <c r="H176" s="4">
+        <v>0</v>
+      </c>
+      <c r="I176" s="4">
         <v>3</v>
-      </c>
-      <c r="H176" s="4">
-        <v>0</v>
-      </c>
-      <c r="I176" s="4">
-        <v>1</v>
       </c>
       <c r="J176" s="7"/>
       <c r="K176" s="4" t="s">
@@ -7458,28 +7432,28 @@
         <v>85</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
       </c>
       <c r="E177" s="4">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F177" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G177" s="4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H177" s="4">
         <v>0</v>
       </c>
       <c r="I177" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" s="7"/>
       <c r="K177" s="4" t="s">
@@ -7494,7 +7468,7 @@
         <v>86</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>73</v>
@@ -7503,19 +7477,19 @@
         <v>0</v>
       </c>
       <c r="E178" s="4">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="F178" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G178" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H178" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" s="7"/>
       <c r="K178" s="4" t="s">
@@ -7525,30 +7499,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A179" s="4">
         <v>87</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>35</v>
+        <v>88</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
       </c>
       <c r="E179" s="4">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="F179" s="4">
+        <v>4</v>
+      </c>
+      <c r="G179" s="4">
+        <v>14</v>
+      </c>
+      <c r="H179" s="4">
         <v>3</v>
-      </c>
-      <c r="G179" s="4">
-        <v>0</v>
-      </c>
-      <c r="H179" s="4">
-        <v>0</v>
       </c>
       <c r="I179" s="4">
         <v>1</v>
@@ -7561,24 +7535,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A180" s="4">
         <v>88</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>16</v>
+        <v>131</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F180" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G180" s="4">
         <v>0</v>
@@ -7587,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J180" s="7"/>
       <c r="K180" s="4" t="s">
@@ -7602,28 +7576,28 @@
         <v>89</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D181" s="4">
         <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F181" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G181" s="4">
         <v>0</v>
       </c>
       <c r="H181" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I181" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J181" s="7"/>
       <c r="K181" s="4" t="s">
@@ -7638,25 +7612,25 @@
         <v>90</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D182" s="4">
         <v>0</v>
       </c>
       <c r="E182" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F182" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" s="4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H182" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I182" s="4">
         <v>1</v>
@@ -7674,25 +7648,25 @@
         <v>91</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
       </c>
       <c r="E183" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
       </c>
       <c r="G183" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H183" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I183" s="4">
         <v>1</v>
@@ -7702,6 +7676,42 @@
         <v>116</v>
       </c>
       <c r="L183" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A184" s="4">
+        <v>92</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D184" s="4">
+        <v>0</v>
+      </c>
+      <c r="E184" s="4">
+        <v>32</v>
+      </c>
+      <c r="F184" s="4">
+        <v>1</v>
+      </c>
+      <c r="G184" s="4">
+        <v>0</v>
+      </c>
+      <c r="H184" s="4">
+        <v>0</v>
+      </c>
+      <c r="I184" s="4">
+        <v>1</v>
+      </c>
+      <c r="J184" s="7"/>
+      <c r="K184" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L184" s="4">
         <v>2</v>
       </c>
     </row>

--- a/MIJITOUR.xlsx
+++ b/MIJITOUR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckymx\Downloads\miji-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E7A310-D13C-4AB4-8540-BB23EF1E6AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01586A45-6B2C-440F-B12A-B4D8B5D85200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E034ED55-084A-49FD-A829-B0C60511E6CD}"/>
   </bookViews>
@@ -437,7 +437,7 @@
     <t>Justin'lee</t>
   </si>
   <si>
-    <t>Guillottine Cross</t>
+    <t>Guillotine Cross</t>
   </si>
 </sst>
 </file>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF2E9C6-8856-4D27-B685-5C6CA991A490}">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection sqref="A1:L184"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MIJITOUR.xlsx
+++ b/MIJITOUR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckymx\Downloads\miji-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01586A45-6B2C-440F-B12A-B4D8B5D85200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84548C0B-9CC3-4ED2-A06B-19FD0FC6FAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E034ED55-084A-49FD-A829-B0C60511E6CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="137">
   <si>
     <t>#</t>
   </si>
@@ -438,13 +438,22 @@
   </si>
   <si>
     <t>Guillotine Cross</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>Mimiw</t>
+  </si>
+  <si>
+    <t>~MERCURY~</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,19 +475,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Noto Sans Thai"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -542,13 +551,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF2E9C6-8856-4D27-B685-5C6CA991A490}">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:L279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="K257" sqref="K257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,14 +4415,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="4">
         <v>1</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D93" s="4">
@@ -4431,7 +4443,7 @@
       <c r="I93" s="4">
         <v>48</v>
       </c>
-      <c r="J93" s="7"/>
+      <c r="J93" s="6"/>
       <c r="K93" s="4" t="s">
         <v>116</v>
       </c>
@@ -4439,14 +4451,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="4">
         <v>2</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="4">
@@ -4467,7 +4479,7 @@
       <c r="I94" s="4">
         <v>28</v>
       </c>
-      <c r="J94" s="7"/>
+      <c r="J94" s="6"/>
       <c r="K94" s="4" t="s">
         <v>116</v>
       </c>
@@ -4475,14 +4487,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="4">
         <v>3</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="4">
@@ -4503,7 +4515,7 @@
       <c r="I95" s="4">
         <v>31</v>
       </c>
-      <c r="J95" s="7"/>
+      <c r="J95" s="6"/>
       <c r="K95" s="4" t="s">
         <v>116</v>
       </c>
@@ -4511,14 +4523,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="4">
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="4">
@@ -4539,7 +4551,7 @@
       <c r="I96" s="4">
         <v>30</v>
       </c>
-      <c r="J96" s="7"/>
+      <c r="J96" s="6"/>
       <c r="K96" s="4" t="s">
         <v>116</v>
       </c>
@@ -4547,14 +4559,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="4">
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D97" s="4">
@@ -4575,7 +4587,7 @@
       <c r="I97" s="4">
         <v>20</v>
       </c>
-      <c r="J97" s="7"/>
+      <c r="J97" s="6"/>
       <c r="K97" s="4" t="s">
         <v>116</v>
       </c>
@@ -4583,14 +4595,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="4">
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="4">
@@ -4611,7 +4623,7 @@
       <c r="I98" s="4">
         <v>35</v>
       </c>
-      <c r="J98" s="7"/>
+      <c r="J98" s="6"/>
       <c r="K98" s="4" t="s">
         <v>116</v>
       </c>
@@ -4619,14 +4631,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="4">
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="4">
@@ -4647,7 +4659,7 @@
       <c r="I99" s="4">
         <v>26</v>
       </c>
-      <c r="J99" s="7"/>
+      <c r="J99" s="6"/>
       <c r="K99" s="4" t="s">
         <v>116</v>
       </c>
@@ -4655,14 +4667,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="4">
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="4">
@@ -4683,7 +4695,7 @@
       <c r="I100" s="4">
         <v>15</v>
       </c>
-      <c r="J100" s="7"/>
+      <c r="J100" s="6"/>
       <c r="K100" s="4" t="s">
         <v>116</v>
       </c>
@@ -4691,14 +4703,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="4">
         <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D101" s="4">
@@ -4719,7 +4731,7 @@
       <c r="I101" s="4">
         <v>13</v>
       </c>
-      <c r="J101" s="7"/>
+      <c r="J101" s="6"/>
       <c r="K101" s="4" t="s">
         <v>116</v>
       </c>
@@ -4727,14 +4739,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="4">
         <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="4">
@@ -4755,7 +4767,7 @@
       <c r="I102" s="4">
         <v>23</v>
       </c>
-      <c r="J102" s="7"/>
+      <c r="J102" s="6"/>
       <c r="K102" s="4" t="s">
         <v>116</v>
       </c>
@@ -4763,14 +4775,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="4">
         <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="4">
@@ -4791,7 +4803,7 @@
       <c r="I103" s="4">
         <v>22</v>
       </c>
-      <c r="J103" s="7"/>
+      <c r="J103" s="6"/>
       <c r="K103" s="4" t="s">
         <v>116</v>
       </c>
@@ -4799,14 +4811,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="4">
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="4">
@@ -4827,7 +4839,7 @@
       <c r="I104" s="4">
         <v>21</v>
       </c>
-      <c r="J104" s="7"/>
+      <c r="J104" s="6"/>
       <c r="K104" s="4" t="s">
         <v>116</v>
       </c>
@@ -4835,14 +4847,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="4">
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="4">
@@ -4863,7 +4875,7 @@
       <c r="I105" s="4">
         <v>11</v>
       </c>
-      <c r="J105" s="7"/>
+      <c r="J105" s="6"/>
       <c r="K105" s="4" t="s">
         <v>116</v>
       </c>
@@ -4871,14 +4883,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="4">
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D106" s="4">
@@ -4899,7 +4911,7 @@
       <c r="I106" s="4">
         <v>8</v>
       </c>
-      <c r="J106" s="7"/>
+      <c r="J106" s="6"/>
       <c r="K106" s="4" t="s">
         <v>116</v>
       </c>
@@ -4907,14 +4919,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="4">
         <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D107" s="4">
@@ -4935,7 +4947,7 @@
       <c r="I107" s="4">
         <v>17</v>
       </c>
-      <c r="J107" s="7"/>
+      <c r="J107" s="6"/>
       <c r="K107" s="4" t="s">
         <v>116</v>
       </c>
@@ -4943,14 +4955,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="4">
         <v>16</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="4">
@@ -4971,7 +4983,7 @@
       <c r="I108" s="4">
         <v>20</v>
       </c>
-      <c r="J108" s="7"/>
+      <c r="J108" s="6"/>
       <c r="K108" s="4" t="s">
         <v>116</v>
       </c>
@@ -4979,14 +4991,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="4">
         <v>17</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="4">
@@ -5007,7 +5019,7 @@
       <c r="I109" s="4">
         <v>9</v>
       </c>
-      <c r="J109" s="7"/>
+      <c r="J109" s="6"/>
       <c r="K109" s="4" t="s">
         <v>116</v>
       </c>
@@ -5015,14 +5027,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="4">
         <v>18</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="4">
@@ -5043,7 +5055,7 @@
       <c r="I110" s="4">
         <v>11</v>
       </c>
-      <c r="J110" s="7"/>
+      <c r="J110" s="6"/>
       <c r="K110" s="4" t="s">
         <v>116</v>
       </c>
@@ -5051,14 +5063,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="4">
         <v>19</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="4">
@@ -5079,7 +5091,7 @@
       <c r="I111" s="4">
         <v>6</v>
       </c>
-      <c r="J111" s="7"/>
+      <c r="J111" s="6"/>
       <c r="K111" s="4" t="s">
         <v>116</v>
       </c>
@@ -5087,14 +5099,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="4">
         <v>20</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D112" s="4">
@@ -5115,7 +5127,7 @@
       <c r="I112" s="4">
         <v>13</v>
       </c>
-      <c r="J112" s="7"/>
+      <c r="J112" s="6"/>
       <c r="K112" s="4" t="s">
         <v>116</v>
       </c>
@@ -5123,14 +5135,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="4">
         <v>21</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D113" s="4">
@@ -5151,7 +5163,7 @@
       <c r="I113" s="4">
         <v>17</v>
       </c>
-      <c r="J113" s="7"/>
+      <c r="J113" s="6"/>
       <c r="K113" s="4" t="s">
         <v>116</v>
       </c>
@@ -5159,14 +5171,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="4">
         <v>22</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D114" s="4">
@@ -5187,7 +5199,7 @@
       <c r="I114" s="4">
         <v>6</v>
       </c>
-      <c r="J114" s="7"/>
+      <c r="J114" s="6"/>
       <c r="K114" s="4" t="s">
         <v>116</v>
       </c>
@@ -5195,14 +5207,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="4">
         <v>23</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="4">
@@ -5223,7 +5235,7 @@
       <c r="I115" s="4">
         <v>8</v>
       </c>
-      <c r="J115" s="7"/>
+      <c r="J115" s="6"/>
       <c r="K115" s="4" t="s">
         <v>116</v>
       </c>
@@ -5231,14 +5243,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="4">
         <v>24</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="4">
@@ -5259,7 +5271,7 @@
       <c r="I116" s="4">
         <v>2</v>
       </c>
-      <c r="J116" s="7"/>
+      <c r="J116" s="6"/>
       <c r="K116" s="4" t="s">
         <v>116</v>
       </c>
@@ -5267,14 +5279,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="4">
         <v>25</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D117" s="4">
@@ -5295,7 +5307,7 @@
       <c r="I117" s="4">
         <v>2</v>
       </c>
-      <c r="J117" s="7"/>
+      <c r="J117" s="6"/>
       <c r="K117" s="4" t="s">
         <v>116</v>
       </c>
@@ -5303,14 +5315,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="4">
         <v>26</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="4">
@@ -5331,7 +5343,7 @@
       <c r="I118" s="4">
         <v>8</v>
       </c>
-      <c r="J118" s="7"/>
+      <c r="J118" s="6"/>
       <c r="K118" s="4" t="s">
         <v>116</v>
       </c>
@@ -5339,14 +5351,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="4">
         <v>27</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="4">
@@ -5367,7 +5379,7 @@
       <c r="I119" s="4">
         <v>7</v>
       </c>
-      <c r="J119" s="7"/>
+      <c r="J119" s="6"/>
       <c r="K119" s="4" t="s">
         <v>116</v>
       </c>
@@ -5375,14 +5387,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="4">
         <v>28</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="4">
@@ -5403,7 +5415,7 @@
       <c r="I120" s="4">
         <v>5</v>
       </c>
-      <c r="J120" s="7"/>
+      <c r="J120" s="6"/>
       <c r="K120" s="4" t="s">
         <v>116</v>
       </c>
@@ -5411,14 +5423,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="4">
         <v>29</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D121" s="4">
@@ -5439,7 +5451,7 @@
       <c r="I121" s="4">
         <v>4</v>
       </c>
-      <c r="J121" s="7"/>
+      <c r="J121" s="6"/>
       <c r="K121" s="4" t="s">
         <v>116</v>
       </c>
@@ -5447,14 +5459,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="4">
         <v>30</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="4">
@@ -5475,7 +5487,7 @@
       <c r="I122" s="4">
         <v>5</v>
       </c>
-      <c r="J122" s="7"/>
+      <c r="J122" s="6"/>
       <c r="K122" s="4" t="s">
         <v>116</v>
       </c>
@@ -5483,14 +5495,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="4">
         <v>31</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="4">
@@ -5511,7 +5523,7 @@
       <c r="I123" s="4">
         <v>2</v>
       </c>
-      <c r="J123" s="7"/>
+      <c r="J123" s="6"/>
       <c r="K123" s="4" t="s">
         <v>116</v>
       </c>
@@ -5519,14 +5531,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="4">
         <v>32</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D124" s="4">
@@ -5547,7 +5559,7 @@
       <c r="I124" s="4">
         <v>5</v>
       </c>
-      <c r="J124" s="7"/>
+      <c r="J124" s="6"/>
       <c r="K124" s="4" t="s">
         <v>116</v>
       </c>
@@ -5555,14 +5567,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="4">
         <v>33</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="4">
@@ -5583,7 +5595,7 @@
       <c r="I125" s="4">
         <v>15</v>
       </c>
-      <c r="J125" s="7"/>
+      <c r="J125" s="6"/>
       <c r="K125" s="4" t="s">
         <v>116</v>
       </c>
@@ -5591,14 +5603,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="4">
         <v>34</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="4">
@@ -5619,7 +5631,7 @@
       <c r="I126" s="4">
         <v>6</v>
       </c>
-      <c r="J126" s="7"/>
+      <c r="J126" s="6"/>
       <c r="K126" s="4" t="s">
         <v>116</v>
       </c>
@@ -5627,14 +5639,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="4">
         <v>35</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D127" s="4">
@@ -5655,7 +5667,7 @@
       <c r="I127" s="4">
         <v>5</v>
       </c>
-      <c r="J127" s="7"/>
+      <c r="J127" s="6"/>
       <c r="K127" s="4" t="s">
         <v>116</v>
       </c>
@@ -5663,14 +5675,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="4">
         <v>36</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D128" s="4">
@@ -5691,7 +5703,7 @@
       <c r="I128" s="4">
         <v>5</v>
       </c>
-      <c r="J128" s="7"/>
+      <c r="J128" s="6"/>
       <c r="K128" s="4" t="s">
         <v>116</v>
       </c>
@@ -5699,14 +5711,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="4">
         <v>37</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D129" s="4">
@@ -5727,7 +5739,7 @@
       <c r="I129" s="4">
         <v>4</v>
       </c>
-      <c r="J129" s="7"/>
+      <c r="J129" s="6"/>
       <c r="K129" s="4" t="s">
         <v>116</v>
       </c>
@@ -5735,14 +5747,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="4">
         <v>38</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D130" s="4">
@@ -5763,7 +5775,7 @@
       <c r="I130" s="4">
         <v>1</v>
       </c>
-      <c r="J130" s="7"/>
+      <c r="J130" s="6"/>
       <c r="K130" s="4" t="s">
         <v>116</v>
       </c>
@@ -5778,7 +5790,7 @@
       <c r="B131" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D131" s="4">
@@ -5799,7 +5811,7 @@
       <c r="I131" s="4">
         <v>9</v>
       </c>
-      <c r="J131" s="7"/>
+      <c r="J131" s="6"/>
       <c r="K131" s="4" t="s">
         <v>116</v>
       </c>
@@ -5807,14 +5819,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="4">
         <v>40</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D132" s="4">
@@ -5835,7 +5847,7 @@
       <c r="I132" s="4">
         <v>5</v>
       </c>
-      <c r="J132" s="7"/>
+      <c r="J132" s="6"/>
       <c r="K132" s="4" t="s">
         <v>116</v>
       </c>
@@ -5843,14 +5855,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="4">
         <v>41</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D133" s="4">
@@ -5871,7 +5883,7 @@
       <c r="I133" s="4">
         <v>4</v>
       </c>
-      <c r="J133" s="7"/>
+      <c r="J133" s="6"/>
       <c r="K133" s="4" t="s">
         <v>116</v>
       </c>
@@ -5879,14 +5891,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="4">
         <v>42</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D134" s="4">
@@ -5907,7 +5919,7 @@
       <c r="I134" s="4">
         <v>5</v>
       </c>
-      <c r="J134" s="7"/>
+      <c r="J134" s="6"/>
       <c r="K134" s="4" t="s">
         <v>116</v>
       </c>
@@ -5915,14 +5927,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="4">
         <v>43</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="4">
@@ -5943,7 +5955,7 @@
       <c r="I135" s="4">
         <v>1</v>
       </c>
-      <c r="J135" s="7"/>
+      <c r="J135" s="6"/>
       <c r="K135" s="4" t="s">
         <v>116</v>
       </c>
@@ -5958,7 +5970,7 @@
       <c r="B136" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D136" s="4">
@@ -5979,7 +5991,7 @@
       <c r="I136" s="4">
         <v>1</v>
       </c>
-      <c r="J136" s="7"/>
+      <c r="J136" s="6"/>
       <c r="K136" s="4" t="s">
         <v>116</v>
       </c>
@@ -5987,14 +5999,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="4">
         <v>45</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D137" s="4">
@@ -6015,7 +6027,7 @@
       <c r="I137" s="4">
         <v>3</v>
       </c>
-      <c r="J137" s="7"/>
+      <c r="J137" s="6"/>
       <c r="K137" s="4" t="s">
         <v>116</v>
       </c>
@@ -6023,14 +6035,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="4">
         <v>46</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D138" s="4">
@@ -6051,7 +6063,7 @@
       <c r="I138" s="4">
         <v>0</v>
       </c>
-      <c r="J138" s="7"/>
+      <c r="J138" s="6"/>
       <c r="K138" s="4" t="s">
         <v>116</v>
       </c>
@@ -6059,14 +6071,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="4">
         <v>47</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D139" s="4">
@@ -6087,7 +6099,7 @@
       <c r="I139" s="4">
         <v>0</v>
       </c>
-      <c r="J139" s="7"/>
+      <c r="J139" s="6"/>
       <c r="K139" s="4" t="s">
         <v>116</v>
       </c>
@@ -6095,14 +6107,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="4">
         <v>48</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D140" s="4">
@@ -6123,7 +6135,7 @@
       <c r="I140" s="4">
         <v>2</v>
       </c>
-      <c r="J140" s="7"/>
+      <c r="J140" s="6"/>
       <c r="K140" s="4" t="s">
         <v>116</v>
       </c>
@@ -6131,14 +6143,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="4">
         <v>49</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D141" s="4">
@@ -6159,7 +6171,7 @@
       <c r="I141" s="4">
         <v>1</v>
       </c>
-      <c r="J141" s="7"/>
+      <c r="J141" s="6"/>
       <c r="K141" s="4" t="s">
         <v>116</v>
       </c>
@@ -6167,14 +6179,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="4">
         <v>50</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D142" s="4">
@@ -6195,7 +6207,7 @@
       <c r="I142" s="4">
         <v>1</v>
       </c>
-      <c r="J142" s="7"/>
+      <c r="J142" s="6"/>
       <c r="K142" s="4" t="s">
         <v>116</v>
       </c>
@@ -6203,14 +6215,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="4">
         <v>51</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D143" s="4">
@@ -6231,7 +6243,7 @@
       <c r="I143" s="4">
         <v>1</v>
       </c>
-      <c r="J143" s="7"/>
+      <c r="J143" s="6"/>
       <c r="K143" s="4" t="s">
         <v>116</v>
       </c>
@@ -6239,14 +6251,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="4">
         <v>52</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D144" s="4">
@@ -6267,7 +6279,7 @@
       <c r="I144" s="4">
         <v>1</v>
       </c>
-      <c r="J144" s="7"/>
+      <c r="J144" s="6"/>
       <c r="K144" s="4" t="s">
         <v>116</v>
       </c>
@@ -6275,14 +6287,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="4">
         <v>53</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D145" s="4">
@@ -6303,7 +6315,7 @@
       <c r="I145" s="4">
         <v>1</v>
       </c>
-      <c r="J145" s="7"/>
+      <c r="J145" s="6"/>
       <c r="K145" s="4" t="s">
         <v>116</v>
       </c>
@@ -6311,14 +6323,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="4">
         <v>54</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="4">
@@ -6339,7 +6351,7 @@
       <c r="I146" s="4">
         <v>3</v>
       </c>
-      <c r="J146" s="7"/>
+      <c r="J146" s="6"/>
       <c r="K146" s="4" t="s">
         <v>116</v>
       </c>
@@ -6347,14 +6359,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="4">
         <v>55</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D147" s="4">
@@ -6375,7 +6387,7 @@
       <c r="I147" s="4">
         <v>3</v>
       </c>
-      <c r="J147" s="7"/>
+      <c r="J147" s="6"/>
       <c r="K147" s="4" t="s">
         <v>116</v>
       </c>
@@ -6383,14 +6395,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="4">
         <v>56</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D148" s="4">
@@ -6411,7 +6423,7 @@
       <c r="I148" s="4">
         <v>2</v>
       </c>
-      <c r="J148" s="7"/>
+      <c r="J148" s="6"/>
       <c r="K148" s="4" t="s">
         <v>116</v>
       </c>
@@ -6419,14 +6431,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="4">
         <v>57</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D149" s="4">
@@ -6447,7 +6459,7 @@
       <c r="I149" s="4">
         <v>2</v>
       </c>
-      <c r="J149" s="7"/>
+      <c r="J149" s="6"/>
       <c r="K149" s="4" t="s">
         <v>116</v>
       </c>
@@ -6455,14 +6467,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A150" s="4">
         <v>58</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="4">
@@ -6483,7 +6495,7 @@
       <c r="I150" s="4">
         <v>1</v>
       </c>
-      <c r="J150" s="7"/>
+      <c r="J150" s="6"/>
       <c r="K150" s="4" t="s">
         <v>116</v>
       </c>
@@ -6491,14 +6503,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="4">
         <v>59</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="4">
@@ -6519,7 +6531,7 @@
       <c r="I151" s="4">
         <v>3</v>
       </c>
-      <c r="J151" s="7"/>
+      <c r="J151" s="6"/>
       <c r="K151" s="4" t="s">
         <v>116</v>
       </c>
@@ -6527,14 +6539,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A152" s="4">
         <v>60</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D152" s="4">
@@ -6555,7 +6567,7 @@
       <c r="I152" s="4">
         <v>1</v>
       </c>
-      <c r="J152" s="7"/>
+      <c r="J152" s="6"/>
       <c r="K152" s="4" t="s">
         <v>116</v>
       </c>
@@ -6563,14 +6575,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A153" s="4">
         <v>61</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D153" s="4">
@@ -6591,7 +6603,7 @@
       <c r="I153" s="4">
         <v>1</v>
       </c>
-      <c r="J153" s="7"/>
+      <c r="J153" s="6"/>
       <c r="K153" s="4" t="s">
         <v>116</v>
       </c>
@@ -6599,14 +6611,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="4">
         <v>62</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D154" s="4">
@@ -6627,7 +6639,7 @@
       <c r="I154" s="4">
         <v>0</v>
       </c>
-      <c r="J154" s="7"/>
+      <c r="J154" s="6"/>
       <c r="K154" s="4" t="s">
         <v>116</v>
       </c>
@@ -6635,14 +6647,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A155" s="4">
         <v>63</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D155" s="4">
@@ -6663,7 +6675,7 @@
       <c r="I155" s="4">
         <v>1</v>
       </c>
-      <c r="J155" s="7"/>
+      <c r="J155" s="6"/>
       <c r="K155" s="4" t="s">
         <v>116</v>
       </c>
@@ -6671,14 +6683,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A156" s="4">
         <v>64</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D156" s="4">
@@ -6699,7 +6711,7 @@
       <c r="I156" s="4">
         <v>1</v>
       </c>
-      <c r="J156" s="7"/>
+      <c r="J156" s="6"/>
       <c r="K156" s="4" t="s">
         <v>116</v>
       </c>
@@ -6707,14 +6719,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A157" s="4">
         <v>65</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D157" s="4">
@@ -6735,7 +6747,7 @@
       <c r="I157" s="4">
         <v>0</v>
       </c>
-      <c r="J157" s="7"/>
+      <c r="J157" s="6"/>
       <c r="K157" s="4" t="s">
         <v>116</v>
       </c>
@@ -6743,14 +6755,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A158" s="4">
         <v>66</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D158" s="4">
@@ -6771,7 +6783,7 @@
       <c r="I158" s="4">
         <v>1</v>
       </c>
-      <c r="J158" s="7"/>
+      <c r="J158" s="6"/>
       <c r="K158" s="4" t="s">
         <v>116</v>
       </c>
@@ -6779,14 +6791,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A159" s="4">
         <v>67</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D159" s="4">
@@ -6807,7 +6819,7 @@
       <c r="I159" s="4">
         <v>1</v>
       </c>
-      <c r="J159" s="7"/>
+      <c r="J159" s="6"/>
       <c r="K159" s="4" t="s">
         <v>116</v>
       </c>
@@ -6815,14 +6827,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A160" s="4">
         <v>68</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D160" s="4">
@@ -6843,7 +6855,7 @@
       <c r="I160" s="4">
         <v>1</v>
       </c>
-      <c r="J160" s="7"/>
+      <c r="J160" s="6"/>
       <c r="K160" s="4" t="s">
         <v>116</v>
       </c>
@@ -6851,14 +6863,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A161" s="4">
         <v>69</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="4">
@@ -6879,7 +6891,7 @@
       <c r="I161" s="4">
         <v>2</v>
       </c>
-      <c r="J161" s="7"/>
+      <c r="J161" s="6"/>
       <c r="K161" s="4" t="s">
         <v>116</v>
       </c>
@@ -6887,14 +6899,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A162" s="4">
         <v>70</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D162" s="4">
@@ -6915,7 +6927,7 @@
       <c r="I162" s="4">
         <v>0</v>
       </c>
-      <c r="J162" s="7"/>
+      <c r="J162" s="6"/>
       <c r="K162" s="4" t="s">
         <v>116</v>
       </c>
@@ -6930,7 +6942,7 @@
       <c r="B163" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D163" s="4">
@@ -6951,7 +6963,7 @@
       <c r="I163" s="4">
         <v>1</v>
       </c>
-      <c r="J163" s="7"/>
+      <c r="J163" s="6"/>
       <c r="K163" s="4" t="s">
         <v>116</v>
       </c>
@@ -6959,14 +6971,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A164" s="4">
         <v>72</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D164" s="4">
@@ -6987,7 +6999,7 @@
       <c r="I164" s="4">
         <v>0</v>
       </c>
-      <c r="J164" s="7"/>
+      <c r="J164" s="6"/>
       <c r="K164" s="4" t="s">
         <v>116</v>
       </c>
@@ -6995,14 +7007,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="4">
         <v>73</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D165" s="4">
@@ -7023,7 +7035,7 @@
       <c r="I165" s="4">
         <v>0</v>
       </c>
-      <c r="J165" s="7"/>
+      <c r="J165" s="6"/>
       <c r="K165" s="4" t="s">
         <v>116</v>
       </c>
@@ -7031,14 +7043,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="4">
         <v>74</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D166" s="4">
@@ -7059,7 +7071,7 @@
       <c r="I166" s="4">
         <v>1</v>
       </c>
-      <c r="J166" s="7"/>
+      <c r="J166" s="6"/>
       <c r="K166" s="4" t="s">
         <v>116</v>
       </c>
@@ -7067,14 +7079,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A167" s="4">
         <v>75</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D167" s="4">
@@ -7095,7 +7107,7 @@
       <c r="I167" s="4">
         <v>0</v>
       </c>
-      <c r="J167" s="7"/>
+      <c r="J167" s="6"/>
       <c r="K167" s="4" t="s">
         <v>116</v>
       </c>
@@ -7103,14 +7115,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A168" s="4">
         <v>76</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D168" s="4">
@@ -7131,7 +7143,7 @@
       <c r="I168" s="4">
         <v>1</v>
       </c>
-      <c r="J168" s="7"/>
+      <c r="J168" s="6"/>
       <c r="K168" s="4" t="s">
         <v>116</v>
       </c>
@@ -7139,14 +7151,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A169" s="4">
         <v>77</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D169" s="4">
@@ -7167,7 +7179,7 @@
       <c r="I169" s="4">
         <v>0</v>
       </c>
-      <c r="J169" s="7"/>
+      <c r="J169" s="6"/>
       <c r="K169" s="4" t="s">
         <v>116</v>
       </c>
@@ -7175,14 +7187,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A170" s="4">
         <v>78</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="4">
@@ -7203,7 +7215,7 @@
       <c r="I170" s="4">
         <v>1</v>
       </c>
-      <c r="J170" s="7"/>
+      <c r="J170" s="6"/>
       <c r="K170" s="4" t="s">
         <v>116</v>
       </c>
@@ -7211,14 +7223,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="4">
         <v>79</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D171" s="4">
@@ -7239,7 +7251,7 @@
       <c r="I171" s="4">
         <v>1</v>
       </c>
-      <c r="J171" s="7"/>
+      <c r="J171" s="6"/>
       <c r="K171" s="4" t="s">
         <v>116</v>
       </c>
@@ -7247,14 +7259,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="4">
         <v>80</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D172" s="4">
@@ -7275,7 +7287,7 @@
       <c r="I172" s="4">
         <v>0</v>
       </c>
-      <c r="J172" s="7"/>
+      <c r="J172" s="6"/>
       <c r="K172" s="4" t="s">
         <v>116</v>
       </c>
@@ -7283,14 +7295,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A173" s="4">
         <v>81</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D173" s="4">
@@ -7311,7 +7323,7 @@
       <c r="I173" s="4">
         <v>2</v>
       </c>
-      <c r="J173" s="7"/>
+      <c r="J173" s="6"/>
       <c r="K173" s="4" t="s">
         <v>116</v>
       </c>
@@ -7319,14 +7331,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="4">
         <v>82</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D174" s="4">
@@ -7347,7 +7359,7 @@
       <c r="I174" s="4">
         <v>1</v>
       </c>
-      <c r="J174" s="7"/>
+      <c r="J174" s="6"/>
       <c r="K174" s="4" t="s">
         <v>116</v>
       </c>
@@ -7355,14 +7367,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="4">
         <v>83</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D175" s="4">
@@ -7383,7 +7395,7 @@
       <c r="I175" s="4">
         <v>1</v>
       </c>
-      <c r="J175" s="7"/>
+      <c r="J175" s="6"/>
       <c r="K175" s="4" t="s">
         <v>116</v>
       </c>
@@ -7391,14 +7403,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="4">
         <v>84</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D176" s="4">
@@ -7419,7 +7431,7 @@
       <c r="I176" s="4">
         <v>3</v>
       </c>
-      <c r="J176" s="7"/>
+      <c r="J176" s="6"/>
       <c r="K176" s="4" t="s">
         <v>116</v>
       </c>
@@ -7427,14 +7439,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="4">
         <v>85</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D177" s="4">
@@ -7455,7 +7467,7 @@
       <c r="I177" s="4">
         <v>1</v>
       </c>
-      <c r="J177" s="7"/>
+      <c r="J177" s="6"/>
       <c r="K177" s="4" t="s">
         <v>116</v>
       </c>
@@ -7463,14 +7475,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="4">
         <v>86</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D178" s="4">
@@ -7491,7 +7503,7 @@
       <c r="I178" s="4">
         <v>0</v>
       </c>
-      <c r="J178" s="7"/>
+      <c r="J178" s="6"/>
       <c r="K178" s="4" t="s">
         <v>116</v>
       </c>
@@ -7499,14 +7511,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="4">
         <v>87</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D179" s="4">
@@ -7527,7 +7539,7 @@
       <c r="I179" s="4">
         <v>1</v>
       </c>
-      <c r="J179" s="7"/>
+      <c r="J179" s="6"/>
       <c r="K179" s="4" t="s">
         <v>116</v>
       </c>
@@ -7542,7 +7554,7 @@
       <c r="B180" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D180" s="4">
@@ -7563,7 +7575,7 @@
       <c r="I180" s="4">
         <v>1</v>
       </c>
-      <c r="J180" s="7"/>
+      <c r="J180" s="6"/>
       <c r="K180" s="4" t="s">
         <v>116</v>
       </c>
@@ -7571,14 +7583,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A181" s="4">
         <v>89</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D181" s="4">
@@ -7599,7 +7611,7 @@
       <c r="I181" s="4">
         <v>3</v>
       </c>
-      <c r="J181" s="7"/>
+      <c r="J181" s="6"/>
       <c r="K181" s="4" t="s">
         <v>116</v>
       </c>
@@ -7607,14 +7619,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="4">
         <v>90</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D182" s="4">
@@ -7635,7 +7647,7 @@
       <c r="I182" s="4">
         <v>1</v>
       </c>
-      <c r="J182" s="7"/>
+      <c r="J182" s="6"/>
       <c r="K182" s="4" t="s">
         <v>116</v>
       </c>
@@ -7643,14 +7655,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A183" s="4">
         <v>91</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D183" s="4">
@@ -7671,7 +7683,7 @@
       <c r="I183" s="4">
         <v>1</v>
       </c>
-      <c r="J183" s="7"/>
+      <c r="J183" s="6"/>
       <c r="K183" s="4" t="s">
         <v>116</v>
       </c>
@@ -7679,14 +7691,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A184" s="4">
         <v>92</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D184" s="4">
@@ -7707,12 +7719,3622 @@
       <c r="I184" s="4">
         <v>1</v>
       </c>
-      <c r="J184" s="7"/>
+      <c r="J184" s="6"/>
       <c r="K184" s="4" t="s">
         <v>116</v>
       </c>
       <c r="L184" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="8">
+        <v>1</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D185" s="8">
+        <v>21</v>
+      </c>
+      <c r="E185" s="8">
+        <v>62</v>
+      </c>
+      <c r="F185" s="8">
+        <v>0</v>
+      </c>
+      <c r="G185" s="8">
+        <v>0</v>
+      </c>
+      <c r="H185" s="8">
+        <v>0</v>
+      </c>
+      <c r="I185" s="8">
+        <v>22</v>
+      </c>
+      <c r="J185" s="8">
+        <v>0</v>
+      </c>
+      <c r="K185" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L185" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="8">
+        <v>2</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="8">
+        <v>18</v>
+      </c>
+      <c r="E186" s="8">
+        <v>87</v>
+      </c>
+      <c r="F186" s="8">
+        <v>0</v>
+      </c>
+      <c r="G186" s="8">
+        <v>0</v>
+      </c>
+      <c r="H186" s="8">
+        <v>0</v>
+      </c>
+      <c r="I186" s="8">
+        <v>15</v>
+      </c>
+      <c r="J186" s="8">
+        <v>0</v>
+      </c>
+      <c r="K186" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L186" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="8">
+        <v>3</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="8">
+        <v>11</v>
+      </c>
+      <c r="E187" s="8">
+        <v>94</v>
+      </c>
+      <c r="F187" s="8">
+        <v>0</v>
+      </c>
+      <c r="G187" s="8">
+        <v>0</v>
+      </c>
+      <c r="H187" s="8">
+        <v>0</v>
+      </c>
+      <c r="I187" s="8">
+        <v>16</v>
+      </c>
+      <c r="J187" s="8">
+        <v>0</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L187" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A188" s="8">
+        <v>4</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="8">
+        <v>11</v>
+      </c>
+      <c r="E188" s="8">
+        <v>39</v>
+      </c>
+      <c r="F188" s="8">
+        <v>1</v>
+      </c>
+      <c r="G188" s="8">
+        <v>0</v>
+      </c>
+      <c r="H188" s="8">
+        <v>0</v>
+      </c>
+      <c r="I188" s="8">
+        <v>12</v>
+      </c>
+      <c r="J188" s="8">
+        <v>0</v>
+      </c>
+      <c r="K188" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L188" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="8">
+        <v>5</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="8">
+        <v>11</v>
+      </c>
+      <c r="E189" s="8">
+        <v>46</v>
+      </c>
+      <c r="F189" s="8">
+        <v>0</v>
+      </c>
+      <c r="G189" s="8">
+        <v>0</v>
+      </c>
+      <c r="H189" s="8">
+        <v>0</v>
+      </c>
+      <c r="I189" s="8">
+        <v>10</v>
+      </c>
+      <c r="J189" s="8">
+        <v>0</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L189" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="8">
+        <v>6</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="8">
+        <v>9</v>
+      </c>
+      <c r="E190" s="8">
+        <v>57</v>
+      </c>
+      <c r="F190" s="8">
+        <v>2</v>
+      </c>
+      <c r="G190" s="8">
+        <v>0</v>
+      </c>
+      <c r="H190" s="8">
+        <v>0</v>
+      </c>
+      <c r="I190" s="8">
+        <v>8</v>
+      </c>
+      <c r="J190" s="8">
+        <v>0</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L190" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="8">
+        <v>7</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" s="8">
+        <v>8</v>
+      </c>
+      <c r="E191" s="8">
+        <v>68</v>
+      </c>
+      <c r="F191" s="8">
+        <v>0</v>
+      </c>
+      <c r="G191" s="8">
+        <v>0</v>
+      </c>
+      <c r="H191" s="8">
+        <v>1</v>
+      </c>
+      <c r="I191" s="8">
+        <v>20</v>
+      </c>
+      <c r="J191" s="8">
+        <v>0</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L191" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="8">
+        <v>8</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="8">
+        <v>8</v>
+      </c>
+      <c r="E192" s="8">
+        <v>41</v>
+      </c>
+      <c r="F192" s="8">
+        <v>0</v>
+      </c>
+      <c r="G192" s="8">
+        <v>0</v>
+      </c>
+      <c r="H192" s="8">
+        <v>0</v>
+      </c>
+      <c r="I192" s="8">
+        <v>11</v>
+      </c>
+      <c r="J192" s="8">
+        <v>0</v>
+      </c>
+      <c r="K192" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L192" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="8">
+        <v>9</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D193" s="8">
+        <v>8</v>
+      </c>
+      <c r="E193" s="8">
+        <v>50</v>
+      </c>
+      <c r="F193" s="8">
+        <v>1</v>
+      </c>
+      <c r="G193" s="8">
+        <v>0</v>
+      </c>
+      <c r="H193" s="8">
+        <v>0</v>
+      </c>
+      <c r="I193" s="8">
+        <v>9</v>
+      </c>
+      <c r="J193" s="8">
+        <v>0</v>
+      </c>
+      <c r="K193" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L193" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A194" s="8">
+        <v>10</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="8">
+        <v>7</v>
+      </c>
+      <c r="E194" s="8">
+        <v>79</v>
+      </c>
+      <c r="F194" s="8">
+        <v>0</v>
+      </c>
+      <c r="G194" s="8">
+        <v>0</v>
+      </c>
+      <c r="H194" s="8">
+        <v>0</v>
+      </c>
+      <c r="I194" s="8">
+        <v>13</v>
+      </c>
+      <c r="J194" s="8">
+        <v>0</v>
+      </c>
+      <c r="K194" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L194" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A195" s="8">
+        <v>11</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D195" s="8">
+        <v>7</v>
+      </c>
+      <c r="E195" s="8">
+        <v>54</v>
+      </c>
+      <c r="F195" s="8">
+        <v>0</v>
+      </c>
+      <c r="G195" s="8">
+        <v>0</v>
+      </c>
+      <c r="H195" s="8">
+        <v>0</v>
+      </c>
+      <c r="I195" s="8">
+        <v>11</v>
+      </c>
+      <c r="J195" s="8">
+        <v>0</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L195" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A196" s="8">
+        <v>12</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="8">
+        <v>7</v>
+      </c>
+      <c r="E196" s="8">
+        <v>101</v>
+      </c>
+      <c r="F196" s="8">
+        <v>0</v>
+      </c>
+      <c r="G196" s="8">
+        <v>0</v>
+      </c>
+      <c r="H196" s="8">
+        <v>1</v>
+      </c>
+      <c r="I196" s="8">
+        <v>11</v>
+      </c>
+      <c r="J196" s="8">
+        <v>0</v>
+      </c>
+      <c r="K196" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L196" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A197" s="8">
+        <v>13</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="8">
+        <v>7</v>
+      </c>
+      <c r="E197" s="8">
+        <v>49</v>
+      </c>
+      <c r="F197" s="8">
+        <v>2</v>
+      </c>
+      <c r="G197" s="8">
+        <v>0</v>
+      </c>
+      <c r="H197" s="8">
+        <v>0</v>
+      </c>
+      <c r="I197" s="8">
+        <v>5</v>
+      </c>
+      <c r="J197" s="8">
+        <v>0</v>
+      </c>
+      <c r="K197" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L197" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="8">
+        <v>14</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="8">
+        <v>7</v>
+      </c>
+      <c r="E198" s="8">
+        <v>66</v>
+      </c>
+      <c r="F198" s="8">
+        <v>1</v>
+      </c>
+      <c r="G198" s="8">
+        <v>0</v>
+      </c>
+      <c r="H198" s="8">
+        <v>5</v>
+      </c>
+      <c r="I198" s="8">
+        <v>5</v>
+      </c>
+      <c r="J198" s="8">
+        <v>0</v>
+      </c>
+      <c r="K198" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L198" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A199" s="8">
+        <v>15</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="8">
+        <v>7</v>
+      </c>
+      <c r="E199" s="8">
+        <v>15</v>
+      </c>
+      <c r="F199" s="8">
+        <v>2</v>
+      </c>
+      <c r="G199" s="8">
+        <v>0</v>
+      </c>
+      <c r="H199" s="8">
+        <v>1</v>
+      </c>
+      <c r="I199" s="8">
+        <v>1</v>
+      </c>
+      <c r="J199" s="8">
+        <v>0</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L199" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A200" s="8">
+        <v>16</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D200" s="8">
+        <v>7</v>
+      </c>
+      <c r="E200" s="8">
+        <v>15</v>
+      </c>
+      <c r="F200" s="8">
+        <v>2</v>
+      </c>
+      <c r="G200" s="8">
+        <v>0</v>
+      </c>
+      <c r="H200" s="8">
+        <v>1</v>
+      </c>
+      <c r="I200" s="8">
+        <v>1</v>
+      </c>
+      <c r="J200" s="8">
+        <v>0</v>
+      </c>
+      <c r="K200" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L200" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A201" s="8">
+        <v>17</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="8">
+        <v>6</v>
+      </c>
+      <c r="E201" s="8">
+        <v>65</v>
+      </c>
+      <c r="F201" s="8">
+        <v>1</v>
+      </c>
+      <c r="G201" s="8">
+        <v>0</v>
+      </c>
+      <c r="H201" s="8">
+        <v>0</v>
+      </c>
+      <c r="I201" s="8">
+        <v>13</v>
+      </c>
+      <c r="J201" s="8">
+        <v>0</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L201" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="8">
+        <v>18</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" s="8">
+        <v>6</v>
+      </c>
+      <c r="E202" s="8">
+        <v>67</v>
+      </c>
+      <c r="F202" s="8">
+        <v>2</v>
+      </c>
+      <c r="G202" s="8">
+        <v>0</v>
+      </c>
+      <c r="H202" s="8">
+        <v>0</v>
+      </c>
+      <c r="I202" s="8">
+        <v>10</v>
+      </c>
+      <c r="J202" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="K202" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L202" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="8">
+        <v>19</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="8">
+        <v>6</v>
+      </c>
+      <c r="E203" s="8">
+        <v>78</v>
+      </c>
+      <c r="F203" s="8">
+        <v>2</v>
+      </c>
+      <c r="G203" s="8">
+        <v>0</v>
+      </c>
+      <c r="H203" s="8">
+        <v>0</v>
+      </c>
+      <c r="I203" s="8">
+        <v>5</v>
+      </c>
+      <c r="J203" s="8">
+        <v>0</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L203" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="8">
+        <v>20</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D204" s="8">
+        <v>6</v>
+      </c>
+      <c r="E204" s="8">
+        <v>21</v>
+      </c>
+      <c r="F204" s="8">
+        <v>1</v>
+      </c>
+      <c r="G204" s="8">
+        <v>0</v>
+      </c>
+      <c r="H204" s="8">
+        <v>0</v>
+      </c>
+      <c r="I204" s="8">
+        <v>4</v>
+      </c>
+      <c r="J204" s="8">
+        <v>0</v>
+      </c>
+      <c r="K204" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L204" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A205" s="8">
+        <v>21</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="8">
+        <v>5</v>
+      </c>
+      <c r="E205" s="8">
+        <v>60</v>
+      </c>
+      <c r="F205" s="8">
+        <v>1</v>
+      </c>
+      <c r="G205" s="8">
+        <v>0</v>
+      </c>
+      <c r="H205" s="8">
+        <v>0</v>
+      </c>
+      <c r="I205" s="8">
+        <v>8</v>
+      </c>
+      <c r="J205" s="8">
+        <v>0</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L205" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A206" s="8">
+        <v>22</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" s="8">
+        <v>5</v>
+      </c>
+      <c r="E206" s="8">
+        <v>65</v>
+      </c>
+      <c r="F206" s="8">
+        <v>2</v>
+      </c>
+      <c r="G206" s="8">
+        <v>0</v>
+      </c>
+      <c r="H206" s="8">
+        <v>1</v>
+      </c>
+      <c r="I206" s="8">
+        <v>5</v>
+      </c>
+      <c r="J206" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="K206" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L206" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A207" s="8">
+        <v>23</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="8">
+        <v>5</v>
+      </c>
+      <c r="E207" s="8">
+        <v>58</v>
+      </c>
+      <c r="F207" s="8">
+        <v>0</v>
+      </c>
+      <c r="G207" s="8">
+        <v>0</v>
+      </c>
+      <c r="H207" s="8">
+        <v>2</v>
+      </c>
+      <c r="I207" s="8">
+        <v>3</v>
+      </c>
+      <c r="J207" s="8">
+        <v>0</v>
+      </c>
+      <c r="K207" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L207" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A208" s="8">
+        <v>24</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="8">
+        <v>4</v>
+      </c>
+      <c r="E208" s="8">
+        <v>56</v>
+      </c>
+      <c r="F208" s="8">
+        <v>2</v>
+      </c>
+      <c r="G208" s="8">
+        <v>0</v>
+      </c>
+      <c r="H208" s="8">
+        <v>0</v>
+      </c>
+      <c r="I208" s="8">
+        <v>13</v>
+      </c>
+      <c r="J208" s="8">
+        <v>0</v>
+      </c>
+      <c r="K208" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L208" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A209" s="8">
+        <v>25</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="8">
+        <v>4</v>
+      </c>
+      <c r="E209" s="8">
+        <v>39</v>
+      </c>
+      <c r="F209" s="8">
+        <v>1</v>
+      </c>
+      <c r="G209" s="8">
+        <v>0</v>
+      </c>
+      <c r="H209" s="8">
+        <v>0</v>
+      </c>
+      <c r="I209" s="8">
+        <v>5</v>
+      </c>
+      <c r="J209" s="8">
+        <v>0</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L209" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A210" s="8">
+        <v>26</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="8">
+        <v>4</v>
+      </c>
+      <c r="E210" s="8">
+        <v>57</v>
+      </c>
+      <c r="F210" s="8">
+        <v>1</v>
+      </c>
+      <c r="G210" s="8">
+        <v>0</v>
+      </c>
+      <c r="H210" s="8">
+        <v>0</v>
+      </c>
+      <c r="I210" s="8">
+        <v>4</v>
+      </c>
+      <c r="J210" s="8">
+        <v>0</v>
+      </c>
+      <c r="K210" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L210" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A211" s="8">
+        <v>27</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="8">
+        <v>3</v>
+      </c>
+      <c r="E211" s="8">
+        <v>46</v>
+      </c>
+      <c r="F211" s="8">
+        <v>2</v>
+      </c>
+      <c r="G211" s="8">
+        <v>0</v>
+      </c>
+      <c r="H211" s="8">
+        <v>0</v>
+      </c>
+      <c r="I211" s="8">
+        <v>9</v>
+      </c>
+      <c r="J211" s="8">
+        <v>0</v>
+      </c>
+      <c r="K211" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L211" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A212" s="8">
+        <v>28</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" s="8">
+        <v>3</v>
+      </c>
+      <c r="E212" s="8">
+        <v>50</v>
+      </c>
+      <c r="F212" s="8">
+        <v>1</v>
+      </c>
+      <c r="G212" s="8">
+        <v>0</v>
+      </c>
+      <c r="H212" s="8">
+        <v>0</v>
+      </c>
+      <c r="I212" s="8">
+        <v>5</v>
+      </c>
+      <c r="J212" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K212" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L212" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A213" s="8">
+        <v>29</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D213" s="8">
+        <v>3</v>
+      </c>
+      <c r="E213" s="8">
+        <v>39</v>
+      </c>
+      <c r="F213" s="8">
+        <v>0</v>
+      </c>
+      <c r="G213" s="8">
+        <v>0</v>
+      </c>
+      <c r="H213" s="8">
+        <v>0</v>
+      </c>
+      <c r="I213" s="8">
+        <v>5</v>
+      </c>
+      <c r="J213" s="8">
+        <v>0</v>
+      </c>
+      <c r="K213" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L213" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A214" s="8">
+        <v>30</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="8">
+        <v>3</v>
+      </c>
+      <c r="E214" s="8">
+        <v>62</v>
+      </c>
+      <c r="F214" s="8">
+        <v>0</v>
+      </c>
+      <c r="G214" s="8">
+        <v>0</v>
+      </c>
+      <c r="H214" s="8">
+        <v>0</v>
+      </c>
+      <c r="I214" s="8">
+        <v>4</v>
+      </c>
+      <c r="J214" s="8">
+        <v>0</v>
+      </c>
+      <c r="K214" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L214" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A215" s="8">
+        <v>31</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="8">
+        <v>3</v>
+      </c>
+      <c r="E215" s="8">
+        <v>56</v>
+      </c>
+      <c r="F215" s="8">
+        <v>3</v>
+      </c>
+      <c r="G215" s="8">
+        <v>0</v>
+      </c>
+      <c r="H215" s="8">
+        <v>0</v>
+      </c>
+      <c r="I215" s="8">
+        <v>3</v>
+      </c>
+      <c r="J215" s="8">
+        <v>0</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L215" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A216" s="8">
+        <v>32</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="8">
+        <v>3</v>
+      </c>
+      <c r="E216" s="8">
+        <v>49</v>
+      </c>
+      <c r="F216" s="8">
+        <v>1</v>
+      </c>
+      <c r="G216" s="8">
+        <v>0</v>
+      </c>
+      <c r="H216" s="8">
+        <v>1</v>
+      </c>
+      <c r="I216" s="8">
+        <v>3</v>
+      </c>
+      <c r="J216" s="8">
+        <v>0</v>
+      </c>
+      <c r="K216" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L216" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A217" s="8">
+        <v>33</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="8">
+        <v>3</v>
+      </c>
+      <c r="E217" s="8">
+        <v>39</v>
+      </c>
+      <c r="F217" s="8">
+        <v>0</v>
+      </c>
+      <c r="G217" s="8">
+        <v>0</v>
+      </c>
+      <c r="H217" s="8">
+        <v>2</v>
+      </c>
+      <c r="I217" s="8">
+        <v>2</v>
+      </c>
+      <c r="J217" s="8">
+        <v>0</v>
+      </c>
+      <c r="K217" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L217" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A218" s="8">
+        <v>34</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="8">
+        <v>2</v>
+      </c>
+      <c r="E218" s="8">
+        <v>44</v>
+      </c>
+      <c r="F218" s="8">
+        <v>0</v>
+      </c>
+      <c r="G218" s="8">
+        <v>0</v>
+      </c>
+      <c r="H218" s="8">
+        <v>1</v>
+      </c>
+      <c r="I218" s="8">
+        <v>7</v>
+      </c>
+      <c r="J218" s="8">
+        <v>0</v>
+      </c>
+      <c r="K218" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L218" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A219" s="8">
+        <v>35</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" s="8">
+        <v>2</v>
+      </c>
+      <c r="E219" s="8">
+        <v>34</v>
+      </c>
+      <c r="F219" s="8">
+        <v>2</v>
+      </c>
+      <c r="G219" s="8">
+        <v>0</v>
+      </c>
+      <c r="H219" s="8">
+        <v>0</v>
+      </c>
+      <c r="I219" s="8">
+        <v>5</v>
+      </c>
+      <c r="J219" s="8">
+        <v>0</v>
+      </c>
+      <c r="K219" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L219" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A220" s="8">
+        <v>36</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="8">
+        <v>2</v>
+      </c>
+      <c r="E220" s="8">
+        <v>51</v>
+      </c>
+      <c r="F220" s="8">
+        <v>1</v>
+      </c>
+      <c r="G220" s="8">
+        <v>0</v>
+      </c>
+      <c r="H220" s="8">
+        <v>1</v>
+      </c>
+      <c r="I220" s="8">
+        <v>3</v>
+      </c>
+      <c r="J220" s="8">
+        <v>0</v>
+      </c>
+      <c r="K220" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L220" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A221" s="8">
+        <v>37</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D221" s="8">
+        <v>2</v>
+      </c>
+      <c r="E221" s="8">
+        <v>48</v>
+      </c>
+      <c r="F221" s="8">
+        <v>0</v>
+      </c>
+      <c r="G221" s="8">
+        <v>0</v>
+      </c>
+      <c r="H221" s="8">
+        <v>0</v>
+      </c>
+      <c r="I221" s="8">
+        <v>2</v>
+      </c>
+      <c r="J221" s="8">
+        <v>0</v>
+      </c>
+      <c r="K221" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L221" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A222" s="8">
+        <v>38</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="8">
+        <v>2</v>
+      </c>
+      <c r="E222" s="8">
+        <v>15</v>
+      </c>
+      <c r="F222" s="8">
+        <v>1</v>
+      </c>
+      <c r="G222" s="8">
+        <v>0</v>
+      </c>
+      <c r="H222" s="8">
+        <v>0</v>
+      </c>
+      <c r="I222" s="8">
+        <v>1</v>
+      </c>
+      <c r="J222" s="8">
+        <v>0</v>
+      </c>
+      <c r="K222" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L222" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A223" s="8">
+        <v>39</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D223" s="8">
+        <v>2</v>
+      </c>
+      <c r="E223" s="8">
+        <v>8</v>
+      </c>
+      <c r="F223" s="8">
+        <v>2</v>
+      </c>
+      <c r="G223" s="8">
+        <v>0</v>
+      </c>
+      <c r="H223" s="8">
+        <v>0</v>
+      </c>
+      <c r="I223" s="8">
+        <v>1</v>
+      </c>
+      <c r="J223" s="8">
+        <v>0</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L223" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A224" s="8">
+        <v>40</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D224" s="8">
+        <v>2</v>
+      </c>
+      <c r="E224" s="8">
+        <v>7</v>
+      </c>
+      <c r="F224" s="8">
+        <v>2</v>
+      </c>
+      <c r="G224" s="8">
+        <v>0</v>
+      </c>
+      <c r="H224" s="8">
+        <v>1</v>
+      </c>
+      <c r="I224" s="8">
+        <v>0</v>
+      </c>
+      <c r="J224" s="8">
+        <v>0</v>
+      </c>
+      <c r="K224" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L224" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A225" s="8">
+        <v>41</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" s="8">
+        <v>1</v>
+      </c>
+      <c r="E225" s="8">
+        <v>67</v>
+      </c>
+      <c r="F225" s="8">
+        <v>3</v>
+      </c>
+      <c r="G225" s="8">
+        <v>0</v>
+      </c>
+      <c r="H225" s="8">
+        <v>4</v>
+      </c>
+      <c r="I225" s="8">
+        <v>6</v>
+      </c>
+      <c r="J225" s="8">
+        <v>0</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L225" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A226" s="8">
+        <v>42</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="8">
+        <v>1</v>
+      </c>
+      <c r="E226" s="8">
+        <v>60</v>
+      </c>
+      <c r="F226" s="8">
+        <v>1</v>
+      </c>
+      <c r="G226" s="8">
+        <v>0</v>
+      </c>
+      <c r="H226" s="8">
+        <v>0</v>
+      </c>
+      <c r="I226" s="8">
+        <v>6</v>
+      </c>
+      <c r="J226" s="8">
+        <v>0</v>
+      </c>
+      <c r="K226" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L226" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A227" s="8">
+        <v>43</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D227" s="8">
+        <v>1</v>
+      </c>
+      <c r="E227" s="8">
+        <v>31</v>
+      </c>
+      <c r="F227" s="8">
+        <v>2</v>
+      </c>
+      <c r="G227" s="8">
+        <v>0</v>
+      </c>
+      <c r="H227" s="8">
+        <v>1</v>
+      </c>
+      <c r="I227" s="8">
+        <v>3</v>
+      </c>
+      <c r="J227" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L227" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A228" s="8">
+        <v>44</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D228" s="8">
+        <v>1</v>
+      </c>
+      <c r="E228" s="8">
+        <v>16</v>
+      </c>
+      <c r="F228" s="8">
+        <v>0</v>
+      </c>
+      <c r="G228" s="8">
+        <v>0</v>
+      </c>
+      <c r="H228" s="8">
+        <v>0</v>
+      </c>
+      <c r="I228" s="8">
+        <v>2</v>
+      </c>
+      <c r="J228" s="8">
+        <v>0</v>
+      </c>
+      <c r="K228" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L228" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A229" s="8">
+        <v>45</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D229" s="8">
+        <v>1</v>
+      </c>
+      <c r="E229" s="8">
+        <v>20</v>
+      </c>
+      <c r="F229" s="8">
+        <v>1</v>
+      </c>
+      <c r="G229" s="8">
+        <v>0</v>
+      </c>
+      <c r="H229" s="8">
+        <v>0</v>
+      </c>
+      <c r="I229" s="8">
+        <v>2</v>
+      </c>
+      <c r="J229" s="8">
+        <v>0</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L229" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A230" s="8">
+        <v>46</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D230" s="8">
+        <v>1</v>
+      </c>
+      <c r="E230" s="8">
+        <v>28</v>
+      </c>
+      <c r="F230" s="8">
+        <v>1</v>
+      </c>
+      <c r="G230" s="8">
+        <v>0</v>
+      </c>
+      <c r="H230" s="8">
+        <v>0</v>
+      </c>
+      <c r="I230" s="8">
+        <v>2</v>
+      </c>
+      <c r="J230" s="8">
+        <v>0</v>
+      </c>
+      <c r="K230" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L230" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A231" s="8">
+        <v>47</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D231" s="8">
+        <v>1</v>
+      </c>
+      <c r="E231" s="8">
+        <v>7</v>
+      </c>
+      <c r="F231" s="8">
+        <v>0</v>
+      </c>
+      <c r="G231" s="8">
+        <v>0</v>
+      </c>
+      <c r="H231" s="8">
+        <v>0</v>
+      </c>
+      <c r="I231" s="8">
+        <v>2</v>
+      </c>
+      <c r="J231" s="8">
+        <v>0</v>
+      </c>
+      <c r="K231" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L231" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A232" s="8">
+        <v>48</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="8">
+        <v>1</v>
+      </c>
+      <c r="E232" s="8">
+        <v>17</v>
+      </c>
+      <c r="F232" s="8">
+        <v>3</v>
+      </c>
+      <c r="G232" s="8">
+        <v>0</v>
+      </c>
+      <c r="H232" s="8">
+        <v>1</v>
+      </c>
+      <c r="I232" s="8">
+        <v>1</v>
+      </c>
+      <c r="J232" s="8">
+        <v>0</v>
+      </c>
+      <c r="K232" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L232" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="8">
+        <v>49</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" s="8">
+        <v>1</v>
+      </c>
+      <c r="E233" s="8">
+        <v>26</v>
+      </c>
+      <c r="F233" s="8">
+        <v>2</v>
+      </c>
+      <c r="G233" s="8">
+        <v>0</v>
+      </c>
+      <c r="H233" s="8">
+        <v>0</v>
+      </c>
+      <c r="I233" s="8">
+        <v>1</v>
+      </c>
+      <c r="J233" s="8">
+        <v>0</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L233" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A234" s="8">
+        <v>50</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D234" s="8">
+        <v>1</v>
+      </c>
+      <c r="E234" s="8">
+        <v>128</v>
+      </c>
+      <c r="F234" s="8">
+        <v>0</v>
+      </c>
+      <c r="G234" s="8">
+        <v>1</v>
+      </c>
+      <c r="H234" s="8">
+        <v>1</v>
+      </c>
+      <c r="I234" s="8">
+        <v>0</v>
+      </c>
+      <c r="J234" s="8">
+        <v>14.91</v>
+      </c>
+      <c r="K234" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L234" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A235" s="8">
+        <v>51</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D235" s="8">
+        <v>1</v>
+      </c>
+      <c r="E235" s="8">
+        <v>40</v>
+      </c>
+      <c r="F235" s="8">
+        <v>0</v>
+      </c>
+      <c r="G235" s="8">
+        <v>0</v>
+      </c>
+      <c r="H235" s="8">
+        <v>2</v>
+      </c>
+      <c r="I235" s="8">
+        <v>0</v>
+      </c>
+      <c r="J235" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L235" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A236" s="8">
+        <v>52</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D236" s="8">
+        <v>1</v>
+      </c>
+      <c r="E236" s="8">
+        <v>7</v>
+      </c>
+      <c r="F236" s="8">
+        <v>2</v>
+      </c>
+      <c r="G236" s="8">
+        <v>4</v>
+      </c>
+      <c r="H236" s="8">
+        <v>0</v>
+      </c>
+      <c r="I236" s="8">
+        <v>0</v>
+      </c>
+      <c r="J236" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="K236" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L236" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A237" s="8">
+        <v>53</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D237" s="8">
+        <v>1</v>
+      </c>
+      <c r="E237" s="8">
+        <v>24</v>
+      </c>
+      <c r="F237" s="8">
+        <v>1</v>
+      </c>
+      <c r="G237" s="8">
+        <v>0</v>
+      </c>
+      <c r="H237" s="8">
+        <v>0</v>
+      </c>
+      <c r="I237" s="8">
+        <v>0</v>
+      </c>
+      <c r="J237" s="8">
+        <v>0</v>
+      </c>
+      <c r="K237" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L237" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A238" s="8">
+        <v>54</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D238" s="8">
+        <v>1</v>
+      </c>
+      <c r="E238" s="8">
+        <v>26</v>
+      </c>
+      <c r="F238" s="8">
+        <v>1</v>
+      </c>
+      <c r="G238" s="8">
+        <v>0</v>
+      </c>
+      <c r="H238" s="8">
+        <v>0</v>
+      </c>
+      <c r="I238" s="8">
+        <v>0</v>
+      </c>
+      <c r="J238" s="8">
+        <v>0</v>
+      </c>
+      <c r="K238" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L238" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A239" s="8">
+        <v>55</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239" s="8">
+        <v>0</v>
+      </c>
+      <c r="E239" s="8">
+        <v>33</v>
+      </c>
+      <c r="F239" s="8">
+        <v>3</v>
+      </c>
+      <c r="G239" s="8">
+        <v>0</v>
+      </c>
+      <c r="H239" s="8">
+        <v>0</v>
+      </c>
+      <c r="I239" s="8">
+        <v>5</v>
+      </c>
+      <c r="J239" s="8">
+        <v>0</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L239" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A240" s="8">
+        <v>56</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D240" s="8">
+        <v>0</v>
+      </c>
+      <c r="E240" s="8">
+        <v>6</v>
+      </c>
+      <c r="F240" s="8">
+        <v>4</v>
+      </c>
+      <c r="G240" s="8">
+        <v>0</v>
+      </c>
+      <c r="H240" s="8">
+        <v>2</v>
+      </c>
+      <c r="I240" s="8">
+        <v>2</v>
+      </c>
+      <c r="J240" s="8">
+        <v>0</v>
+      </c>
+      <c r="K240" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L240" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A241" s="8">
+        <v>57</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D241" s="8">
+        <v>0</v>
+      </c>
+      <c r="E241" s="8">
+        <v>95</v>
+      </c>
+      <c r="F241" s="8">
+        <v>0</v>
+      </c>
+      <c r="G241" s="8">
+        <v>0</v>
+      </c>
+      <c r="H241" s="8">
+        <v>0</v>
+      </c>
+      <c r="I241" s="8">
+        <v>1</v>
+      </c>
+      <c r="J241" s="8">
+        <v>12.31</v>
+      </c>
+      <c r="K241" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L241" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A242" s="8">
+        <v>58</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D242" s="8">
+        <v>0</v>
+      </c>
+      <c r="E242" s="8">
+        <v>5</v>
+      </c>
+      <c r="F242" s="8">
+        <v>1</v>
+      </c>
+      <c r="G242" s="8">
+        <v>1</v>
+      </c>
+      <c r="H242" s="8">
+        <v>0</v>
+      </c>
+      <c r="I242" s="8">
+        <v>1</v>
+      </c>
+      <c r="J242" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="K242" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L242" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A243" s="8">
+        <v>59</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D243" s="8">
+        <v>0</v>
+      </c>
+      <c r="E243" s="8">
+        <v>30</v>
+      </c>
+      <c r="F243" s="8">
+        <v>2</v>
+      </c>
+      <c r="G243" s="8">
+        <v>0</v>
+      </c>
+      <c r="H243" s="8">
+        <v>0</v>
+      </c>
+      <c r="I243" s="8">
+        <v>1</v>
+      </c>
+      <c r="J243" s="8">
+        <v>0</v>
+      </c>
+      <c r="K243" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L243" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A244" s="8">
+        <v>60</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D244" s="8">
+        <v>0</v>
+      </c>
+      <c r="E244" s="8">
+        <v>19</v>
+      </c>
+      <c r="F244" s="8">
+        <v>4</v>
+      </c>
+      <c r="G244" s="8">
+        <v>0</v>
+      </c>
+      <c r="H244" s="8">
+        <v>0</v>
+      </c>
+      <c r="I244" s="8">
+        <v>1</v>
+      </c>
+      <c r="J244" s="8">
+        <v>0</v>
+      </c>
+      <c r="K244" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L244" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A245" s="8">
+        <v>61</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D245" s="8">
+        <v>0</v>
+      </c>
+      <c r="E245" s="8">
+        <v>12</v>
+      </c>
+      <c r="F245" s="8">
+        <v>3</v>
+      </c>
+      <c r="G245" s="8">
+        <v>0</v>
+      </c>
+      <c r="H245" s="8">
+        <v>0</v>
+      </c>
+      <c r="I245" s="8">
+        <v>1</v>
+      </c>
+      <c r="J245" s="8">
+        <v>0</v>
+      </c>
+      <c r="K245" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L245" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A246" s="8">
+        <v>62</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D246" s="8">
+        <v>0</v>
+      </c>
+      <c r="E246" s="8">
+        <v>41</v>
+      </c>
+      <c r="F246" s="8">
+        <v>0</v>
+      </c>
+      <c r="G246" s="8">
+        <v>0</v>
+      </c>
+      <c r="H246" s="8">
+        <v>0</v>
+      </c>
+      <c r="I246" s="8">
+        <v>1</v>
+      </c>
+      <c r="J246" s="8">
+        <v>0</v>
+      </c>
+      <c r="K246" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L246" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A247" s="8">
+        <v>63</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D247" s="8">
+        <v>0</v>
+      </c>
+      <c r="E247" s="8">
+        <v>28</v>
+      </c>
+      <c r="F247" s="8">
+        <v>0</v>
+      </c>
+      <c r="G247" s="8">
+        <v>0</v>
+      </c>
+      <c r="H247" s="8">
+        <v>3</v>
+      </c>
+      <c r="I247" s="8">
+        <v>1</v>
+      </c>
+      <c r="J247" s="8">
+        <v>0</v>
+      </c>
+      <c r="K247" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L247" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A248" s="8">
+        <v>64</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D248" s="8">
+        <v>0</v>
+      </c>
+      <c r="E248" s="8">
+        <v>55</v>
+      </c>
+      <c r="F248" s="8">
+        <v>0</v>
+      </c>
+      <c r="G248" s="8">
+        <v>2</v>
+      </c>
+      <c r="H248" s="8">
+        <v>0</v>
+      </c>
+      <c r="I248" s="8">
+        <v>0</v>
+      </c>
+      <c r="J248" s="8">
+        <v>21.55</v>
+      </c>
+      <c r="K248" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L248" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A249" s="8">
+        <v>65</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D249" s="8">
+        <v>0</v>
+      </c>
+      <c r="E249" s="8">
+        <v>36</v>
+      </c>
+      <c r="F249" s="8">
+        <v>0</v>
+      </c>
+      <c r="G249" s="8">
+        <v>1</v>
+      </c>
+      <c r="H249" s="8">
+        <v>0</v>
+      </c>
+      <c r="I249" s="8">
+        <v>0</v>
+      </c>
+      <c r="J249" s="8">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="K249" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L249" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A250" s="8">
+        <v>66</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D250" s="8">
+        <v>0</v>
+      </c>
+      <c r="E250" s="8">
+        <v>36</v>
+      </c>
+      <c r="F250" s="8">
+        <v>1</v>
+      </c>
+      <c r="G250" s="8">
+        <v>0</v>
+      </c>
+      <c r="H250" s="8">
+        <v>1</v>
+      </c>
+      <c r="I250" s="8">
+        <v>0</v>
+      </c>
+      <c r="J250" s="8">
+        <v>8.19</v>
+      </c>
+      <c r="K250" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L250" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A251" s="8">
+        <v>67</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D251" s="8">
+        <v>0</v>
+      </c>
+      <c r="E251" s="8">
+        <v>39</v>
+      </c>
+      <c r="F251" s="8">
+        <v>0</v>
+      </c>
+      <c r="G251" s="8">
+        <v>4</v>
+      </c>
+      <c r="H251" s="8">
+        <v>3</v>
+      </c>
+      <c r="I251" s="8">
+        <v>0</v>
+      </c>
+      <c r="J251" s="8">
+        <v>6.24</v>
+      </c>
+      <c r="K251" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L251" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A252" s="8">
+        <v>68</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D252" s="8">
+        <v>0</v>
+      </c>
+      <c r="E252" s="8">
+        <v>18</v>
+      </c>
+      <c r="F252" s="8">
+        <v>2</v>
+      </c>
+      <c r="G252" s="8">
+        <v>4</v>
+      </c>
+      <c r="H252" s="8">
+        <v>1</v>
+      </c>
+      <c r="I252" s="8">
+        <v>0</v>
+      </c>
+      <c r="J252" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K252" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L252" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A253" s="8">
+        <v>69</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D253" s="8">
+        <v>0</v>
+      </c>
+      <c r="E253" s="8">
+        <v>38</v>
+      </c>
+      <c r="F253" s="8">
+        <v>4</v>
+      </c>
+      <c r="G253" s="8">
+        <v>0</v>
+      </c>
+      <c r="H253" s="8">
+        <v>0</v>
+      </c>
+      <c r="I253" s="8">
+        <v>0</v>
+      </c>
+      <c r="J253" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K253" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L253" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A254" s="8">
+        <v>70</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D254" s="8">
+        <v>0</v>
+      </c>
+      <c r="E254" s="8">
+        <v>13</v>
+      </c>
+      <c r="F254" s="8">
+        <v>0</v>
+      </c>
+      <c r="G254" s="8">
+        <v>3</v>
+      </c>
+      <c r="H254" s="8">
+        <v>1</v>
+      </c>
+      <c r="I254" s="8">
+        <v>0</v>
+      </c>
+      <c r="J254" s="8">
+        <v>3.82</v>
+      </c>
+      <c r="K254" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L254" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A255" s="8">
+        <v>71</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D255" s="8">
+        <v>0</v>
+      </c>
+      <c r="E255" s="8">
+        <v>24</v>
+      </c>
+      <c r="F255" s="8">
+        <v>1</v>
+      </c>
+      <c r="G255" s="8">
+        <v>1</v>
+      </c>
+      <c r="H255" s="8">
+        <v>0</v>
+      </c>
+      <c r="I255" s="8">
+        <v>0</v>
+      </c>
+      <c r="J255" s="8">
+        <v>3.58</v>
+      </c>
+      <c r="K255" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L255" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A256" s="8">
+        <v>72</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D256" s="8">
+        <v>0</v>
+      </c>
+      <c r="E256" s="8">
+        <v>60</v>
+      </c>
+      <c r="F256" s="8">
+        <v>0</v>
+      </c>
+      <c r="G256" s="8">
+        <v>0</v>
+      </c>
+      <c r="H256" s="8">
+        <v>0</v>
+      </c>
+      <c r="I256" s="8">
+        <v>0</v>
+      </c>
+      <c r="J256" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="K256" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L256" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A257" s="8">
+        <v>73</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D257" s="8">
+        <v>0</v>
+      </c>
+      <c r="E257" s="8">
+        <v>10</v>
+      </c>
+      <c r="F257" s="8">
+        <v>0</v>
+      </c>
+      <c r="G257" s="8">
+        <v>5</v>
+      </c>
+      <c r="H257" s="8">
+        <v>5</v>
+      </c>
+      <c r="I257" s="8">
+        <v>0</v>
+      </c>
+      <c r="J257" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="K257" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L257" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A258" s="8">
+        <v>74</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D258" s="8">
+        <v>0</v>
+      </c>
+      <c r="E258" s="8">
+        <v>6</v>
+      </c>
+      <c r="F258" s="8">
+        <v>1</v>
+      </c>
+      <c r="G258" s="8">
+        <v>0</v>
+      </c>
+      <c r="H258" s="8">
+        <v>1</v>
+      </c>
+      <c r="I258" s="8">
+        <v>0</v>
+      </c>
+      <c r="J258" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="K258" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L258" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A259" s="8">
+        <v>75</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D259" s="8">
+        <v>0</v>
+      </c>
+      <c r="E259" s="8">
+        <v>11</v>
+      </c>
+      <c r="F259" s="8">
+        <v>0</v>
+      </c>
+      <c r="G259" s="8">
+        <v>5</v>
+      </c>
+      <c r="H259" s="8">
+        <v>1</v>
+      </c>
+      <c r="I259" s="8">
+        <v>0</v>
+      </c>
+      <c r="J259" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="K259" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L259" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A260" s="8">
+        <v>76</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D260" s="8">
+        <v>0</v>
+      </c>
+      <c r="E260" s="8">
+        <v>0</v>
+      </c>
+      <c r="F260" s="8">
+        <v>2</v>
+      </c>
+      <c r="G260" s="8">
+        <v>0</v>
+      </c>
+      <c r="H260" s="8">
+        <v>0</v>
+      </c>
+      <c r="I260" s="8">
+        <v>0</v>
+      </c>
+      <c r="J260" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="K260" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L260" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A261" s="8">
+        <v>77</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D261" s="8">
+        <v>0</v>
+      </c>
+      <c r="E261" s="8">
+        <v>11</v>
+      </c>
+      <c r="F261" s="8">
+        <v>1</v>
+      </c>
+      <c r="G261" s="8">
+        <v>3</v>
+      </c>
+      <c r="H261" s="8">
+        <v>0</v>
+      </c>
+      <c r="I261" s="8">
+        <v>0</v>
+      </c>
+      <c r="J261" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="K261" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L261" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A262" s="8">
+        <v>78</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D262" s="8">
+        <v>0</v>
+      </c>
+      <c r="E262" s="8">
+        <v>2</v>
+      </c>
+      <c r="F262" s="8">
+        <v>0</v>
+      </c>
+      <c r="G262" s="8">
+        <v>5</v>
+      </c>
+      <c r="H262" s="8">
+        <v>9</v>
+      </c>
+      <c r="I262" s="8">
+        <v>0</v>
+      </c>
+      <c r="J262" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="K262" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L262" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A263" s="8">
+        <v>79</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D263" s="8">
+        <v>0</v>
+      </c>
+      <c r="E263" s="8">
+        <v>3</v>
+      </c>
+      <c r="F263" s="8">
+        <v>1</v>
+      </c>
+      <c r="G263" s="8">
+        <v>2</v>
+      </c>
+      <c r="H263" s="8">
+        <v>0</v>
+      </c>
+      <c r="I263" s="8">
+        <v>0</v>
+      </c>
+      <c r="J263" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K263" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L263" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A264" s="8">
+        <v>80</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D264" s="8">
+        <v>0</v>
+      </c>
+      <c r="E264" s="8">
+        <v>11</v>
+      </c>
+      <c r="F264" s="8">
+        <v>0</v>
+      </c>
+      <c r="G264" s="8">
+        <v>10</v>
+      </c>
+      <c r="H264" s="8">
+        <v>4</v>
+      </c>
+      <c r="I264" s="8">
+        <v>0</v>
+      </c>
+      <c r="J264" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K264" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L264" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A265" s="8">
+        <v>81</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D265" s="8">
+        <v>0</v>
+      </c>
+      <c r="E265" s="8">
+        <v>5</v>
+      </c>
+      <c r="F265" s="8">
+        <v>0</v>
+      </c>
+      <c r="G265" s="8">
+        <v>10</v>
+      </c>
+      <c r="H265" s="8">
+        <v>2</v>
+      </c>
+      <c r="I265" s="8">
+        <v>0</v>
+      </c>
+      <c r="J265" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="K265" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L265" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A266" s="8">
+        <v>82</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D266" s="8">
+        <v>0</v>
+      </c>
+      <c r="E266" s="8">
+        <v>0</v>
+      </c>
+      <c r="F266" s="8">
+        <v>0</v>
+      </c>
+      <c r="G266" s="8">
+        <v>13</v>
+      </c>
+      <c r="H266" s="8">
+        <v>2</v>
+      </c>
+      <c r="I266" s="8">
+        <v>0</v>
+      </c>
+      <c r="J266" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="K266" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L266" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A267" s="8">
+        <v>83</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D267" s="8">
+        <v>0</v>
+      </c>
+      <c r="E267" s="8">
+        <v>5</v>
+      </c>
+      <c r="F267" s="8">
+        <v>1</v>
+      </c>
+      <c r="G267" s="8">
+        <v>0</v>
+      </c>
+      <c r="H267" s="8">
+        <v>1</v>
+      </c>
+      <c r="I267" s="8">
+        <v>0</v>
+      </c>
+      <c r="J267" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K267" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L267" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A268" s="8">
+        <v>84</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D268" s="8">
+        <v>0</v>
+      </c>
+      <c r="E268" s="8">
+        <v>4</v>
+      </c>
+      <c r="F268" s="8">
+        <v>0</v>
+      </c>
+      <c r="G268" s="8">
+        <v>0</v>
+      </c>
+      <c r="H268" s="8">
+        <v>7</v>
+      </c>
+      <c r="I268" s="8">
+        <v>0</v>
+      </c>
+      <c r="J268" s="8">
+        <v>0</v>
+      </c>
+      <c r="K268" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L268" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A269" s="8">
+        <v>85</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D269" s="8">
+        <v>0</v>
+      </c>
+      <c r="E269" s="8">
+        <v>3</v>
+      </c>
+      <c r="F269" s="8">
+        <v>0</v>
+      </c>
+      <c r="G269" s="8">
+        <v>0</v>
+      </c>
+      <c r="H269" s="8">
+        <v>2</v>
+      </c>
+      <c r="I269" s="8">
+        <v>0</v>
+      </c>
+      <c r="J269" s="8">
+        <v>0</v>
+      </c>
+      <c r="K269" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L269" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A270" s="8">
+        <v>86</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D270" s="8">
+        <v>0</v>
+      </c>
+      <c r="E270" s="8">
+        <v>8</v>
+      </c>
+      <c r="F270" s="8">
+        <v>2</v>
+      </c>
+      <c r="G270" s="8">
+        <v>0</v>
+      </c>
+      <c r="H270" s="8">
+        <v>2</v>
+      </c>
+      <c r="I270" s="8">
+        <v>0</v>
+      </c>
+      <c r="J270" s="8">
+        <v>0</v>
+      </c>
+      <c r="K270" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L270" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A271" s="8">
+        <v>87</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D271" s="8">
+        <v>0</v>
+      </c>
+      <c r="E271" s="8">
+        <v>10</v>
+      </c>
+      <c r="F271" s="8">
+        <v>0</v>
+      </c>
+      <c r="G271" s="8">
+        <v>0</v>
+      </c>
+      <c r="H271" s="8">
+        <v>0</v>
+      </c>
+      <c r="I271" s="8">
+        <v>0</v>
+      </c>
+      <c r="J271" s="8">
+        <v>0</v>
+      </c>
+      <c r="K271" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L271" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A272" s="8">
+        <v>88</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D272" s="8">
+        <v>0</v>
+      </c>
+      <c r="E272" s="8">
+        <v>5</v>
+      </c>
+      <c r="F272" s="8">
+        <v>0</v>
+      </c>
+      <c r="G272" s="8">
+        <v>0</v>
+      </c>
+      <c r="H272" s="8">
+        <v>1</v>
+      </c>
+      <c r="I272" s="8">
+        <v>0</v>
+      </c>
+      <c r="J272" s="8">
+        <v>0</v>
+      </c>
+      <c r="K272" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L272" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A273" s="8">
+        <v>89</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D273" s="8">
+        <v>0</v>
+      </c>
+      <c r="E273" s="8">
+        <v>2</v>
+      </c>
+      <c r="F273" s="8">
+        <v>0</v>
+      </c>
+      <c r="G273" s="8">
+        <v>5</v>
+      </c>
+      <c r="H273" s="8">
+        <v>5</v>
+      </c>
+      <c r="I273" s="8">
+        <v>0</v>
+      </c>
+      <c r="J273" s="8">
+        <v>0</v>
+      </c>
+      <c r="K273" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L273" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A274" s="8">
+        <v>90</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D274" s="8">
+        <v>0</v>
+      </c>
+      <c r="E274" s="8">
+        <v>0</v>
+      </c>
+      <c r="F274" s="8">
+        <v>0</v>
+      </c>
+      <c r="G274" s="8">
+        <v>6</v>
+      </c>
+      <c r="H274" s="8">
+        <v>0</v>
+      </c>
+      <c r="I274" s="8">
+        <v>0</v>
+      </c>
+      <c r="J274" s="8">
+        <v>0</v>
+      </c>
+      <c r="K274" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L274" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A275" s="8">
+        <v>91</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D275" s="8">
+        <v>0</v>
+      </c>
+      <c r="E275" s="8">
+        <v>13</v>
+      </c>
+      <c r="F275" s="8">
+        <v>1</v>
+      </c>
+      <c r="G275" s="8">
+        <v>2</v>
+      </c>
+      <c r="H275" s="8">
+        <v>1</v>
+      </c>
+      <c r="I275" s="8">
+        <v>0</v>
+      </c>
+      <c r="J275" s="8">
+        <v>0</v>
+      </c>
+      <c r="K275" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L275" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A276" s="8">
+        <v>92</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D276" s="8">
+        <v>0</v>
+      </c>
+      <c r="E276" s="8">
+        <v>0</v>
+      </c>
+      <c r="F276" s="8">
+        <v>3</v>
+      </c>
+      <c r="G276" s="8">
+        <v>0</v>
+      </c>
+      <c r="H276" s="8">
+        <v>0</v>
+      </c>
+      <c r="I276" s="8">
+        <v>0</v>
+      </c>
+      <c r="J276" s="8">
+        <v>0</v>
+      </c>
+      <c r="K276" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L276" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A277" s="8">
+        <v>93</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D277" s="8">
+        <v>0</v>
+      </c>
+      <c r="E277" s="8">
+        <v>9</v>
+      </c>
+      <c r="F277" s="8">
+        <v>0</v>
+      </c>
+      <c r="G277" s="8">
+        <v>0</v>
+      </c>
+      <c r="H277" s="8">
+        <v>3</v>
+      </c>
+      <c r="I277" s="8">
+        <v>0</v>
+      </c>
+      <c r="J277" s="8">
+        <v>0</v>
+      </c>
+      <c r="K277" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L277" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A278" s="8">
+        <v>94</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D278" s="8">
+        <v>0</v>
+      </c>
+      <c r="E278" s="8">
+        <v>3</v>
+      </c>
+      <c r="F278" s="8">
+        <v>2</v>
+      </c>
+      <c r="G278" s="8">
+        <v>0</v>
+      </c>
+      <c r="H278" s="8">
+        <v>0</v>
+      </c>
+      <c r="I278" s="8">
+        <v>0</v>
+      </c>
+      <c r="J278" s="8">
+        <v>0</v>
+      </c>
+      <c r="K278" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L278" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A279" s="8">
+        <v>95</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D279" s="8">
+        <v>0</v>
+      </c>
+      <c r="E279" s="8">
+        <v>20</v>
+      </c>
+      <c r="F279" s="8">
+        <v>1</v>
+      </c>
+      <c r="G279" s="8">
+        <v>0</v>
+      </c>
+      <c r="H279" s="8">
+        <v>0</v>
+      </c>
+      <c r="I279" s="8">
+        <v>0</v>
+      </c>
+      <c r="J279" s="8">
+        <v>0</v>
+      </c>
+      <c r="K279" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L279" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
